--- a/MILP/model_output/TS_Subproblem_Solution.xlsx
+++ b/MILP/model_output/TS_Subproblem_Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="274">
   <si>
     <t>origin_id</t>
   </si>
@@ -47,9 +47,18 @@
     <t>All</t>
   </si>
   <si>
+    <t>train_1_3_dMo_t19</t>
+  </si>
+  <si>
+    <t>train_1_3_dTu_t43</t>
+  </si>
+  <si>
     <t>train_1_5_dMo_t18</t>
   </si>
   <si>
+    <t>train_2_3_dFallback0_t12</t>
+  </si>
+  <si>
     <t>train_2_3_dFallback2_t60</t>
   </si>
   <si>
@@ -68,6 +77,78 @@
     <t>train_5_1_dMo_t15</t>
   </si>
   <si>
+    <t>dwell_1_t19</t>
+  </si>
+  <si>
+    <t>dwell_1_t20</t>
+  </si>
+  <si>
+    <t>dwell_1_t21</t>
+  </si>
+  <si>
+    <t>dwell_1_t22</t>
+  </si>
+  <si>
+    <t>dwell_1_t23</t>
+  </si>
+  <si>
+    <t>dwell_1_t24</t>
+  </si>
+  <si>
+    <t>dwell_1_t25</t>
+  </si>
+  <si>
+    <t>dwell_1_t26</t>
+  </si>
+  <si>
+    <t>dwell_1_t27</t>
+  </si>
+  <si>
+    <t>dwell_1_t28</t>
+  </si>
+  <si>
+    <t>dwell_1_t29</t>
+  </si>
+  <si>
+    <t>dwell_1_t30</t>
+  </si>
+  <si>
+    <t>dwell_1_t31</t>
+  </si>
+  <si>
+    <t>dwell_1_t32</t>
+  </si>
+  <si>
+    <t>dwell_1_t33</t>
+  </si>
+  <si>
+    <t>dwell_1_t34</t>
+  </si>
+  <si>
+    <t>dwell_1_t35</t>
+  </si>
+  <si>
+    <t>dwell_1_t36</t>
+  </si>
+  <si>
+    <t>dwell_1_t37</t>
+  </si>
+  <si>
+    <t>dwell_1_t38</t>
+  </si>
+  <si>
+    <t>dwell_1_t39</t>
+  </si>
+  <si>
+    <t>dwell_1_t40</t>
+  </si>
+  <si>
+    <t>dwell_1_t41</t>
+  </si>
+  <si>
+    <t>dwell_1_t42</t>
+  </si>
+  <si>
     <t>dwell_2_t16</t>
   </si>
   <si>
@@ -290,12 +371,27 @@
     <t>dwell_3_t69</t>
   </si>
   <si>
+    <t>entry_Aarau_Chiasso_t19</t>
+  </si>
+  <si>
+    <t>exit_Aarau_Chiasso_t22</t>
+  </si>
+  <si>
+    <t>exit_Aarau_Chiasso_t46</t>
+  </si>
+  <si>
     <t>entry_Aarau_Visp_t18</t>
   </si>
   <si>
     <t>exit_Aarau_Visp_t22</t>
   </si>
   <si>
+    <t>entry_Baselwolf_Chiasso_t12</t>
+  </si>
+  <si>
+    <t>exit_Baselwolf_Chiasso_t16</t>
+  </si>
+  <si>
     <t>entry_Chiasso_Aarau_t12</t>
   </si>
   <si>
@@ -311,15 +407,30 @@
     <t>exit_Chiasso_Aarau_t73</t>
   </si>
   <si>
+    <t>entry_Chiasso_Baselwolf_t12</t>
+  </si>
+  <si>
+    <t>exit_Chiasso_Baselwolf_t16</t>
+  </si>
+  <si>
     <t>entry_Visp_Aarau_t15</t>
   </si>
   <si>
     <t>exit_Visp_Aarau_t18</t>
   </si>
   <si>
+    <t>Node1_t19</t>
+  </si>
+  <si>
+    <t>Node1_t43</t>
+  </si>
+  <si>
     <t>Node1_t18</t>
   </si>
   <si>
+    <t>Node2_t12</t>
+  </si>
+  <si>
     <t>Node2_t60</t>
   </si>
   <si>
@@ -338,6 +449,75 @@
     <t>Node5_t15</t>
   </si>
   <si>
+    <t>Node1_t20</t>
+  </si>
+  <si>
+    <t>Node1_t21</t>
+  </si>
+  <si>
+    <t>Node1_t22</t>
+  </si>
+  <si>
+    <t>Node1_t23</t>
+  </si>
+  <si>
+    <t>Node1_t24</t>
+  </si>
+  <si>
+    <t>Node1_t25</t>
+  </si>
+  <si>
+    <t>Node1_t26</t>
+  </si>
+  <si>
+    <t>Node1_t27</t>
+  </si>
+  <si>
+    <t>Node1_t28</t>
+  </si>
+  <si>
+    <t>Node1_t29</t>
+  </si>
+  <si>
+    <t>Node1_t30</t>
+  </si>
+  <si>
+    <t>Node1_t31</t>
+  </si>
+  <si>
+    <t>Node1_t32</t>
+  </si>
+  <si>
+    <t>Node1_t33</t>
+  </si>
+  <si>
+    <t>Node1_t34</t>
+  </si>
+  <si>
+    <t>Node1_t35</t>
+  </si>
+  <si>
+    <t>Node1_t36</t>
+  </si>
+  <si>
+    <t>Node1_t37</t>
+  </si>
+  <si>
+    <t>Node1_t38</t>
+  </si>
+  <si>
+    <t>Node1_t39</t>
+  </si>
+  <si>
+    <t>Node1_t40</t>
+  </si>
+  <si>
+    <t>Node1_t41</t>
+  </si>
+  <si>
+    <t>Node1_t42</t>
+  </si>
+  <si>
     <t>Node2_t16</t>
   </si>
   <si>
@@ -557,33 +737,51 @@
     <t>Node3_t69</t>
   </si>
   <si>
+    <t>OD_Aarau_Chiasso_source</t>
+  </si>
+  <si>
     <t>OD_Aarau_Visp_source</t>
   </si>
   <si>
     <t>Node5_t22</t>
   </si>
   <si>
+    <t>OD_Baselwolf_Chiasso_source</t>
+  </si>
+  <si>
+    <t>Node3_t16</t>
+  </si>
+  <si>
     <t>OD_Chiasso_Aarau_source</t>
   </si>
   <si>
-    <t>Node1_t25</t>
-  </si>
-  <si>
     <t>Node1_t49</t>
   </si>
   <si>
     <t>Node1_t73</t>
   </si>
   <si>
+    <t>OD_Chiasso_Baselwolf_source</t>
+  </si>
+  <si>
     <t>OD_Visp_Aarau_source</t>
   </si>
   <si>
+    <t>OD_Aarau_Chiasso_sink</t>
+  </si>
+  <si>
     <t>OD_Aarau_Visp_sink</t>
   </si>
   <si>
+    <t>OD_Baselwolf_Chiasso_sink</t>
+  </si>
+  <si>
     <t>OD_Chiasso_Aarau_sink</t>
   </si>
   <si>
+    <t>OD_Chiasso_Baselwolf_sink</t>
+  </si>
+  <si>
     <t>OD_Visp_Aarau_sink</t>
   </si>
   <si>
@@ -599,6 +797,9 @@
     <t>exit</t>
   </si>
   <si>
+    <t>Aarau-Chiasso_IM</t>
+  </si>
+  <si>
     <t>Aarau-Visp_IM</t>
   </si>
   <si>
@@ -626,13 +827,16 @@
     <t>utilization_%</t>
   </si>
   <si>
+    <t>Aarau</t>
+  </si>
+  <si>
     <t>Chiasso</t>
   </si>
   <si>
-    <t>Aarau</t>
-  </si>
-  <si>
     <t>Visp</t>
+  </si>
+  <si>
+    <t>Baselwolf</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,22 +1240,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>151.515715</v>
+        <v>155.63758</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1065,22 +1269,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H3">
-        <v>157.7173901587302</v>
+        <v>155.63758</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1094,22 +1298,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H4">
-        <v>155.47652625</v>
+        <v>151.515715</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1123,22 +1327,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>70.5600000000007</v>
       </c>
       <c r="H5">
-        <v>155.47652625</v>
+        <v>157.7173901587302</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1152,22 +1356,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6">
-        <v>155.47652625</v>
+        <v>157.7173901587302</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1181,22 +1385,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H7">
-        <v>157.6675138592233</v>
+        <v>155.47652625</v>
       </c>
       <c r="I7" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1210,22 +1414,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>152.065055</v>
+        <v>155.47652625</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1239,19 +1443,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9">
-        <v>1.333333333333333</v>
+        <v>155.47652625</v>
+      </c>
+      <c r="I9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1265,19 +1472,22 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="H10">
-        <v>1.333333333333333</v>
+        <v>157.6675138592233</v>
+      </c>
+      <c r="I10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1291,19 +1501,22 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>1.333333333333333</v>
+        <v>152.065055</v>
+      </c>
+      <c r="I11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1317,16 +1530,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H12">
         <v>1.333333333333333</v>
@@ -1343,16 +1556,16 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H13">
         <v>1.333333333333333</v>
@@ -1369,16 +1582,16 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H14">
         <v>1.333333333333333</v>
@@ -1395,16 +1608,16 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H15">
         <v>1.333333333333333</v>
@@ -1421,16 +1634,16 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H16">
         <v>1.333333333333333</v>
@@ -1447,16 +1660,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H17">
         <v>1.333333333333333</v>
@@ -1473,16 +1686,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H18">
         <v>1.333333333333333</v>
@@ -1499,16 +1712,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H19">
         <v>1.333333333333333</v>
@@ -1525,16 +1738,16 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H20">
         <v>1.333333333333333</v>
@@ -1551,16 +1764,16 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H21">
         <v>1.333333333333333</v>
@@ -1577,16 +1790,16 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H22">
         <v>1.333333333333333</v>
@@ -1603,16 +1816,16 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H23">
         <v>1.333333333333333</v>
@@ -1629,16 +1842,16 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H24">
         <v>1.333333333333333</v>
@@ -1655,16 +1868,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H25">
         <v>1.333333333333333</v>
@@ -1681,16 +1894,16 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H26">
         <v>1.333333333333333</v>
@@ -1707,16 +1920,16 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H27">
         <v>1.333333333333333</v>
@@ -1733,16 +1946,16 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H28">
         <v>1.333333333333333</v>
@@ -1759,16 +1972,16 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H29">
         <v>1.333333333333333</v>
@@ -1785,16 +1998,16 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H30">
         <v>1.333333333333333</v>
@@ -1811,16 +2024,16 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H31">
         <v>1.333333333333333</v>
@@ -1837,16 +2050,16 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H32">
         <v>1.333333333333333</v>
@@ -1863,16 +2076,16 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H33">
         <v>1.333333333333333</v>
@@ -1889,16 +2102,16 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H34">
         <v>1.333333333333333</v>
@@ -1915,16 +2128,16 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>0.8499999999999943</v>
       </c>
       <c r="H35">
         <v>1.333333333333333</v>
@@ -1941,13 +2154,13 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -1967,13 +2180,13 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -1993,13 +2206,13 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G38">
         <v>8</v>
@@ -2019,13 +2232,13 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -2045,13 +2258,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -2071,13 +2284,13 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -2097,13 +2310,13 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G42">
         <v>8</v>
@@ -2123,13 +2336,13 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -2149,13 +2362,13 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G44">
         <v>8</v>
@@ -2175,13 +2388,13 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -2201,13 +2414,13 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -2227,13 +2440,13 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G47">
         <v>8</v>
@@ -2253,13 +2466,13 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G48">
         <v>8</v>
@@ -2279,13 +2492,13 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2305,13 +2518,13 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -2331,13 +2544,13 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -2357,13 +2570,13 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -2383,16 +2596,16 @@
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G53">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H53">
         <v>1.333333333333333</v>
@@ -2409,16 +2622,16 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G54">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>1.333333333333333</v>
@@ -2435,16 +2648,16 @@
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G55">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H55">
         <v>1.333333333333333</v>
@@ -2461,16 +2674,16 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G56">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H56">
         <v>1.333333333333333</v>
@@ -2487,16 +2700,16 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G57">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H57">
         <v>1.333333333333333</v>
@@ -2513,16 +2726,16 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G58">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H58">
         <v>1.333333333333333</v>
@@ -2539,16 +2752,16 @@
         <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H59">
         <v>1.333333333333333</v>
@@ -2565,16 +2778,16 @@
         <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G60">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H60">
         <v>1.333333333333333</v>
@@ -2591,16 +2804,16 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G61">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H61">
         <v>1.333333333333333</v>
@@ -2617,16 +2830,16 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G62">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H62">
         <v>1.333333333333333</v>
@@ -2643,16 +2856,16 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G63">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H63">
         <v>1.333333333333333</v>
@@ -2669,16 +2882,16 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G64">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H64">
         <v>1.333333333333333</v>
@@ -2695,16 +2908,16 @@
         <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H65">
         <v>1.333333333333333</v>
@@ -2721,16 +2934,16 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G66">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H66">
         <v>1.333333333333333</v>
@@ -2747,16 +2960,16 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H67">
         <v>1.333333333333333</v>
@@ -2773,16 +2986,16 @@
         <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H68">
         <v>1.333333333333333</v>
@@ -2799,16 +3012,16 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H69">
         <v>1.333333333333333</v>
@@ -2825,16 +3038,16 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G70">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H70">
         <v>1.333333333333333</v>
@@ -2851,16 +3064,16 @@
         <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="F71" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G71">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H71">
         <v>1.333333333333333</v>
@@ -2877,16 +3090,16 @@
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G72">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H72">
         <v>1.333333333333333</v>
@@ -2903,16 +3116,16 @@
         <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G73">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H73">
         <v>1.333333333333333</v>
@@ -2929,16 +3142,16 @@
         <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E74" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G74">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H74">
         <v>1.333333333333333</v>
@@ -2955,16 +3168,16 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G75">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H75">
         <v>1.333333333333333</v>
@@ -2981,16 +3194,16 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F76" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G76">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H76">
         <v>1.333333333333333</v>
@@ -3007,13 +3220,13 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E77" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F77" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G77">
         <v>8</v>
@@ -3033,13 +3246,13 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="E78" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G78">
         <v>8</v>
@@ -3059,13 +3272,13 @@
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G79">
         <v>8</v>
@@ -3085,22 +3298,22 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H80">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3111,22 +3324,22 @@
         <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G81">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H81">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3137,22 +3350,22 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G82">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H82">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3163,25 +3376,22 @@
         <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="G83">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3192,25 +3402,22 @@
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F84" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="G84">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3221,25 +3428,22 @@
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3250,25 +3454,22 @@
         <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="G86">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3279,25 +3480,22 @@
         <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F87" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="G87">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3308,25 +3506,22 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="G88">
         <v>24</v>
       </c>
       <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3337,25 +3532,22 @@
         <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="F89" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3366,25 +3558,22 @@
         <v>98</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="F90" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="G90">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3395,22 +3584,951 @@
         <v>99</v>
       </c>
       <c r="D91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91">
+        <v>24</v>
+      </c>
+      <c r="H91">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
         <v>100</v>
       </c>
-      <c r="E91" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91" t="s">
-        <v>193</v>
-      </c>
-      <c r="G91">
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92">
+        <v>24</v>
+      </c>
+      <c r="H92">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93">
+        <v>24</v>
+      </c>
+      <c r="H93">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94">
+        <v>24</v>
+      </c>
+      <c r="H94">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95">
+        <v>24</v>
+      </c>
+      <c r="H95">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>257</v>
+      </c>
+      <c r="G96">
+        <v>24</v>
+      </c>
+      <c r="H96">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97" t="s">
+        <v>257</v>
+      </c>
+      <c r="G97">
+        <v>24</v>
+      </c>
+      <c r="H97">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98" t="s">
+        <v>257</v>
+      </c>
+      <c r="G98">
+        <v>24</v>
+      </c>
+      <c r="H98">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" t="s">
+        <v>257</v>
+      </c>
+      <c r="G99">
+        <v>24</v>
+      </c>
+      <c r="H99">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>230</v>
+      </c>
+      <c r="E100" t="s">
+        <v>231</v>
+      </c>
+      <c r="F100" t="s">
+        <v>257</v>
+      </c>
+      <c r="G100">
+        <v>24</v>
+      </c>
+      <c r="H100">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" t="s">
+        <v>257</v>
+      </c>
+      <c r="G101">
+        <v>24</v>
+      </c>
+      <c r="H101">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
+        <v>233</v>
+      </c>
+      <c r="F102" t="s">
+        <v>257</v>
+      </c>
+      <c r="G102">
+        <v>24</v>
+      </c>
+      <c r="H102">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>233</v>
+      </c>
+      <c r="E103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" t="s">
+        <v>257</v>
+      </c>
+      <c r="G103">
+        <v>24</v>
+      </c>
+      <c r="H103">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" t="s">
+        <v>235</v>
+      </c>
+      <c r="F104" t="s">
+        <v>257</v>
+      </c>
+      <c r="G104">
+        <v>8</v>
+      </c>
+      <c r="H104">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" t="s">
+        <v>236</v>
+      </c>
+      <c r="F105" t="s">
+        <v>257</v>
+      </c>
+      <c r="G105">
+        <v>8</v>
+      </c>
+      <c r="H105">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" t="s">
+        <v>237</v>
+      </c>
+      <c r="F106" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106">
+        <v>8</v>
+      </c>
+      <c r="H106">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" t="s">
+        <v>238</v>
+      </c>
+      <c r="F107" t="s">
+        <v>257</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" t="s">
+        <v>257</v>
+      </c>
+      <c r="G108">
+        <v>8</v>
+      </c>
+      <c r="H108">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+      <c r="F109" t="s">
+        <v>257</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" t="s">
+        <v>258</v>
+      </c>
+      <c r="G110">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" t="s">
+        <v>259</v>
+      </c>
+      <c r="G111">
+        <v>80</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" t="s">
+        <v>250</v>
+      </c>
+      <c r="F112" t="s">
+        <v>259</v>
+      </c>
+      <c r="G112">
+        <v>0.8499999999999943</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E113" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" t="s">
+        <v>258</v>
+      </c>
+      <c r="G113">
+        <v>63</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
+        <v>251</v>
+      </c>
+      <c r="F114" t="s">
+        <v>259</v>
+      </c>
+      <c r="G114">
+        <v>63</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" t="s">
+        <v>258</v>
+      </c>
+      <c r="G115">
+        <v>70.5600000000007</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+      <c r="E116" t="s">
+        <v>252</v>
+      </c>
+      <c r="F116" t="s">
+        <v>259</v>
+      </c>
+      <c r="G116">
+        <v>70.5600000000007</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117" t="s">
+        <v>258</v>
+      </c>
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" t="s">
+        <v>245</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" t="s">
+        <v>258</v>
+      </c>
+      <c r="G118">
+        <v>104</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" t="s">
+        <v>253</v>
+      </c>
+      <c r="F119" t="s">
+        <v>259</v>
+      </c>
+      <c r="G119">
+        <v>80</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" t="s">
+        <v>259</v>
+      </c>
+      <c r="G120">
+        <v>24</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" t="s">
+        <v>259</v>
+      </c>
+      <c r="G121">
+        <v>8</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="s">
+        <v>248</v>
+      </c>
+      <c r="E122" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122">
+        <v>57.68</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" t="s">
+        <v>167</v>
+      </c>
+      <c r="E123" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" t="s">
+        <v>259</v>
+      </c>
+      <c r="G123">
+        <v>57.68</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" t="s">
+        <v>258</v>
+      </c>
+      <c r="G124">
         <v>49</v>
       </c>
-      <c r="H91">
+      <c r="H124">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>198</v>
+      <c r="I124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" t="s">
+        <v>255</v>
+      </c>
+      <c r="F125" t="s">
+        <v>259</v>
+      </c>
+      <c r="G125">
+        <v>49</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +4538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3434,16 +4552,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -3451,71 +4569,140 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="E2">
-        <v>112</v>
+        <v>80.85000000000002</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F3">
-        <v>78.75</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>80</v>
       </c>
       <c r="F4">
+        <v>78.75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
         <v>61.25000000000001</v>
       </c>
-      <c r="G4" t="s">
-        <v>198</v>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6">
+        <v>70.5600000000007</v>
+      </c>
+      <c r="D6">
+        <v>70.5600000000007</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>88.20000000000088</v>
+      </c>
+      <c r="G6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7">
+        <v>57.68</v>
+      </c>
+      <c r="D7">
+        <v>57.68</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/TS_Subproblem_Solution.xlsx
+++ b/MILP/model_output/TS_Subproblem_Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="225">
   <si>
     <t>origin_id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>train_1_3_dMo_t19</t>
   </si>
   <si>
-    <t>train_1_3_dTu_t43</t>
-  </si>
-  <si>
     <t>train_1_5_dMo_t18</t>
   </si>
   <si>
@@ -77,78 +74,6 @@
     <t>train_5_1_dMo_t15</t>
   </si>
   <si>
-    <t>dwell_1_t19</t>
-  </si>
-  <si>
-    <t>dwell_1_t20</t>
-  </si>
-  <si>
-    <t>dwell_1_t21</t>
-  </si>
-  <si>
-    <t>dwell_1_t22</t>
-  </si>
-  <si>
-    <t>dwell_1_t23</t>
-  </si>
-  <si>
-    <t>dwell_1_t24</t>
-  </si>
-  <si>
-    <t>dwell_1_t25</t>
-  </si>
-  <si>
-    <t>dwell_1_t26</t>
-  </si>
-  <si>
-    <t>dwell_1_t27</t>
-  </si>
-  <si>
-    <t>dwell_1_t28</t>
-  </si>
-  <si>
-    <t>dwell_1_t29</t>
-  </si>
-  <si>
-    <t>dwell_1_t30</t>
-  </si>
-  <si>
-    <t>dwell_1_t31</t>
-  </si>
-  <si>
-    <t>dwell_1_t32</t>
-  </si>
-  <si>
-    <t>dwell_1_t33</t>
-  </si>
-  <si>
-    <t>dwell_1_t34</t>
-  </si>
-  <si>
-    <t>dwell_1_t35</t>
-  </si>
-  <si>
-    <t>dwell_1_t36</t>
-  </si>
-  <si>
-    <t>dwell_1_t37</t>
-  </si>
-  <si>
-    <t>dwell_1_t38</t>
-  </si>
-  <si>
-    <t>dwell_1_t39</t>
-  </si>
-  <si>
-    <t>dwell_1_t40</t>
-  </si>
-  <si>
-    <t>dwell_1_t41</t>
-  </si>
-  <si>
-    <t>dwell_1_t42</t>
-  </si>
-  <si>
     <t>dwell_2_t16</t>
   </si>
   <si>
@@ -377,9 +302,6 @@
     <t>exit_Aarau_Chiasso_t22</t>
   </si>
   <si>
-    <t>exit_Aarau_Chiasso_t46</t>
-  </si>
-  <si>
     <t>entry_Aarau_Visp_t18</t>
   </si>
   <si>
@@ -422,9 +344,6 @@
     <t>Node1_t19</t>
   </si>
   <si>
-    <t>Node1_t43</t>
-  </si>
-  <si>
     <t>Node1_t18</t>
   </si>
   <si>
@@ -449,310 +368,244 @@
     <t>Node5_t15</t>
   </si>
   <si>
-    <t>Node1_t20</t>
-  </si>
-  <si>
-    <t>Node1_t21</t>
-  </si>
-  <si>
-    <t>Node1_t22</t>
-  </si>
-  <si>
-    <t>Node1_t23</t>
-  </si>
-  <si>
-    <t>Node1_t24</t>
+    <t>Node2_t16</t>
+  </si>
+  <si>
+    <t>Node2_t17</t>
+  </si>
+  <si>
+    <t>Node2_t18</t>
+  </si>
+  <si>
+    <t>Node2_t19</t>
+  </si>
+  <si>
+    <t>Node2_t20</t>
+  </si>
+  <si>
+    <t>Node2_t21</t>
+  </si>
+  <si>
+    <t>Node2_t22</t>
+  </si>
+  <si>
+    <t>Node2_t23</t>
+  </si>
+  <si>
+    <t>Node2_t24</t>
+  </si>
+  <si>
+    <t>Node2_t25</t>
+  </si>
+  <si>
+    <t>Node2_t26</t>
+  </si>
+  <si>
+    <t>Node2_t27</t>
+  </si>
+  <si>
+    <t>Node2_t28</t>
+  </si>
+  <si>
+    <t>Node2_t29</t>
+  </si>
+  <si>
+    <t>Node2_t30</t>
+  </si>
+  <si>
+    <t>Node2_t31</t>
+  </si>
+  <si>
+    <t>Node2_t32</t>
+  </si>
+  <si>
+    <t>Node2_t33</t>
+  </si>
+  <si>
+    <t>Node2_t34</t>
+  </si>
+  <si>
+    <t>Node2_t35</t>
+  </si>
+  <si>
+    <t>Node2_t36</t>
+  </si>
+  <si>
+    <t>Node2_t37</t>
+  </si>
+  <si>
+    <t>Node2_t38</t>
+  </si>
+  <si>
+    <t>Node2_t39</t>
+  </si>
+  <si>
+    <t>Node2_t40</t>
+  </si>
+  <si>
+    <t>Node2_t41</t>
+  </si>
+  <si>
+    <t>Node2_t42</t>
+  </si>
+  <si>
+    <t>Node2_t43</t>
+  </si>
+  <si>
+    <t>Node2_t44</t>
+  </si>
+  <si>
+    <t>Node2_t45</t>
+  </si>
+  <si>
+    <t>Node2_t46</t>
+  </si>
+  <si>
+    <t>Node2_t47</t>
+  </si>
+  <si>
+    <t>Node2_t48</t>
+  </si>
+  <si>
+    <t>Node2_t49</t>
+  </si>
+  <si>
+    <t>Node2_t50</t>
+  </si>
+  <si>
+    <t>Node2_t51</t>
+  </si>
+  <si>
+    <t>Node2_t52</t>
+  </si>
+  <si>
+    <t>Node2_t53</t>
+  </si>
+  <si>
+    <t>Node2_t54</t>
+  </si>
+  <si>
+    <t>Node2_t55</t>
+  </si>
+  <si>
+    <t>Node2_t56</t>
+  </si>
+  <si>
+    <t>Node2_t57</t>
+  </si>
+  <si>
+    <t>Node2_t58</t>
+  </si>
+  <si>
+    <t>Node2_t59</t>
+  </si>
+  <si>
+    <t>Node3_t23</t>
+  </si>
+  <si>
+    <t>Node3_t24</t>
+  </si>
+  <si>
+    <t>Node3_t25</t>
+  </si>
+  <si>
+    <t>Node3_t26</t>
+  </si>
+  <si>
+    <t>Node3_t27</t>
+  </si>
+  <si>
+    <t>Node3_t28</t>
+  </si>
+  <si>
+    <t>Node3_t29</t>
+  </si>
+  <si>
+    <t>Node3_t30</t>
+  </si>
+  <si>
+    <t>Node3_t31</t>
+  </si>
+  <si>
+    <t>Node3_t32</t>
+  </si>
+  <si>
+    <t>Node3_t33</t>
+  </si>
+  <si>
+    <t>Node3_t34</t>
+  </si>
+  <si>
+    <t>Node3_t35</t>
+  </si>
+  <si>
+    <t>Node3_t36</t>
+  </si>
+  <si>
+    <t>Node3_t37</t>
+  </si>
+  <si>
+    <t>Node3_t38</t>
+  </si>
+  <si>
+    <t>Node3_t39</t>
+  </si>
+  <si>
+    <t>Node3_t40</t>
+  </si>
+  <si>
+    <t>Node3_t41</t>
+  </si>
+  <si>
+    <t>Node3_t42</t>
+  </si>
+  <si>
+    <t>Node3_t43</t>
+  </si>
+  <si>
+    <t>Node3_t44</t>
+  </si>
+  <si>
+    <t>Node3_t45</t>
+  </si>
+  <si>
+    <t>Node3_t64</t>
+  </si>
+  <si>
+    <t>Node3_t65</t>
+  </si>
+  <si>
+    <t>Node3_t66</t>
+  </si>
+  <si>
+    <t>Node3_t67</t>
+  </si>
+  <si>
+    <t>Node3_t68</t>
+  </si>
+  <si>
+    <t>Node3_t69</t>
+  </si>
+  <si>
+    <t>OD_Aarau_Chiasso_source</t>
+  </si>
+  <si>
+    <t>OD_Aarau_Visp_source</t>
+  </si>
+  <si>
+    <t>Node5_t22</t>
+  </si>
+  <si>
+    <t>OD_Baselwolf_Chiasso_source</t>
+  </si>
+  <si>
+    <t>Node3_t16</t>
+  </si>
+  <si>
+    <t>OD_Chiasso_Aarau_source</t>
   </si>
   <si>
     <t>Node1_t25</t>
-  </si>
-  <si>
-    <t>Node1_t26</t>
-  </si>
-  <si>
-    <t>Node1_t27</t>
-  </si>
-  <si>
-    <t>Node1_t28</t>
-  </si>
-  <si>
-    <t>Node1_t29</t>
-  </si>
-  <si>
-    <t>Node1_t30</t>
-  </si>
-  <si>
-    <t>Node1_t31</t>
-  </si>
-  <si>
-    <t>Node1_t32</t>
-  </si>
-  <si>
-    <t>Node1_t33</t>
-  </si>
-  <si>
-    <t>Node1_t34</t>
-  </si>
-  <si>
-    <t>Node1_t35</t>
-  </si>
-  <si>
-    <t>Node1_t36</t>
-  </si>
-  <si>
-    <t>Node1_t37</t>
-  </si>
-  <si>
-    <t>Node1_t38</t>
-  </si>
-  <si>
-    <t>Node1_t39</t>
-  </si>
-  <si>
-    <t>Node1_t40</t>
-  </si>
-  <si>
-    <t>Node1_t41</t>
-  </si>
-  <si>
-    <t>Node1_t42</t>
-  </si>
-  <si>
-    <t>Node2_t16</t>
-  </si>
-  <si>
-    <t>Node2_t17</t>
-  </si>
-  <si>
-    <t>Node2_t18</t>
-  </si>
-  <si>
-    <t>Node2_t19</t>
-  </si>
-  <si>
-    <t>Node2_t20</t>
-  </si>
-  <si>
-    <t>Node2_t21</t>
-  </si>
-  <si>
-    <t>Node2_t22</t>
-  </si>
-  <si>
-    <t>Node2_t23</t>
-  </si>
-  <si>
-    <t>Node2_t24</t>
-  </si>
-  <si>
-    <t>Node2_t25</t>
-  </si>
-  <si>
-    <t>Node2_t26</t>
-  </si>
-  <si>
-    <t>Node2_t27</t>
-  </si>
-  <si>
-    <t>Node2_t28</t>
-  </si>
-  <si>
-    <t>Node2_t29</t>
-  </si>
-  <si>
-    <t>Node2_t30</t>
-  </si>
-  <si>
-    <t>Node2_t31</t>
-  </si>
-  <si>
-    <t>Node2_t32</t>
-  </si>
-  <si>
-    <t>Node2_t33</t>
-  </si>
-  <si>
-    <t>Node2_t34</t>
-  </si>
-  <si>
-    <t>Node2_t35</t>
-  </si>
-  <si>
-    <t>Node2_t36</t>
-  </si>
-  <si>
-    <t>Node2_t37</t>
-  </si>
-  <si>
-    <t>Node2_t38</t>
-  </si>
-  <si>
-    <t>Node2_t39</t>
-  </si>
-  <si>
-    <t>Node2_t40</t>
-  </si>
-  <si>
-    <t>Node2_t41</t>
-  </si>
-  <si>
-    <t>Node2_t42</t>
-  </si>
-  <si>
-    <t>Node2_t43</t>
-  </si>
-  <si>
-    <t>Node2_t44</t>
-  </si>
-  <si>
-    <t>Node2_t45</t>
-  </si>
-  <si>
-    <t>Node2_t46</t>
-  </si>
-  <si>
-    <t>Node2_t47</t>
-  </si>
-  <si>
-    <t>Node2_t48</t>
-  </si>
-  <si>
-    <t>Node2_t49</t>
-  </si>
-  <si>
-    <t>Node2_t50</t>
-  </si>
-  <si>
-    <t>Node2_t51</t>
-  </si>
-  <si>
-    <t>Node2_t52</t>
-  </si>
-  <si>
-    <t>Node2_t53</t>
-  </si>
-  <si>
-    <t>Node2_t54</t>
-  </si>
-  <si>
-    <t>Node2_t55</t>
-  </si>
-  <si>
-    <t>Node2_t56</t>
-  </si>
-  <si>
-    <t>Node2_t57</t>
-  </si>
-  <si>
-    <t>Node2_t58</t>
-  </si>
-  <si>
-    <t>Node2_t59</t>
-  </si>
-  <si>
-    <t>Node3_t23</t>
-  </si>
-  <si>
-    <t>Node3_t24</t>
-  </si>
-  <si>
-    <t>Node3_t25</t>
-  </si>
-  <si>
-    <t>Node3_t26</t>
-  </si>
-  <si>
-    <t>Node3_t27</t>
-  </si>
-  <si>
-    <t>Node3_t28</t>
-  </si>
-  <si>
-    <t>Node3_t29</t>
-  </si>
-  <si>
-    <t>Node3_t30</t>
-  </si>
-  <si>
-    <t>Node3_t31</t>
-  </si>
-  <si>
-    <t>Node3_t32</t>
-  </si>
-  <si>
-    <t>Node3_t33</t>
-  </si>
-  <si>
-    <t>Node3_t34</t>
-  </si>
-  <si>
-    <t>Node3_t35</t>
-  </si>
-  <si>
-    <t>Node3_t36</t>
-  </si>
-  <si>
-    <t>Node3_t37</t>
-  </si>
-  <si>
-    <t>Node3_t38</t>
-  </si>
-  <si>
-    <t>Node3_t39</t>
-  </si>
-  <si>
-    <t>Node3_t40</t>
-  </si>
-  <si>
-    <t>Node3_t41</t>
-  </si>
-  <si>
-    <t>Node3_t42</t>
-  </si>
-  <si>
-    <t>Node3_t43</t>
-  </si>
-  <si>
-    <t>Node3_t44</t>
-  </si>
-  <si>
-    <t>Node3_t45</t>
-  </si>
-  <si>
-    <t>Node3_t64</t>
-  </si>
-  <si>
-    <t>Node3_t65</t>
-  </si>
-  <si>
-    <t>Node3_t66</t>
-  </si>
-  <si>
-    <t>Node3_t67</t>
-  </si>
-  <si>
-    <t>Node3_t68</t>
-  </si>
-  <si>
-    <t>Node3_t69</t>
-  </si>
-  <si>
-    <t>OD_Aarau_Chiasso_source</t>
-  </si>
-  <si>
-    <t>OD_Aarau_Visp_source</t>
-  </si>
-  <si>
-    <t>Node5_t22</t>
-  </si>
-  <si>
-    <t>OD_Baselwolf_Chiasso_source</t>
-  </si>
-  <si>
-    <t>Node3_t16</t>
-  </si>
-  <si>
-    <t>OD_Chiasso_Aarau_source</t>
   </si>
   <si>
     <t>Node1_t49</t>
@@ -1194,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,22 +1093,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>29.4</v>
       </c>
       <c r="H2">
         <v>155.63758</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1269,22 +1122,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G3">
-        <v>0.8499999999999943</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>155.63758</v>
+        <v>151.515715</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1298,22 +1151,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>52.9200000000003</v>
       </c>
       <c r="H4">
-        <v>151.515715</v>
+        <v>157.7173901587302</v>
       </c>
       <c r="I4" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1327,22 +1180,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G5">
-        <v>70.5600000000007</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>157.7173901587302</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1356,22 +1209,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>157.7173901587302</v>
+        <v>155.47652625</v>
       </c>
       <c r="I6" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1385,22 +1238,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G7">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>155.47652625</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1414,22 +1267,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>155.47652625</v>
       </c>
       <c r="I8" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1443,22 +1296,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>51.26000000000022</v>
       </c>
       <c r="H9">
-        <v>155.47652625</v>
+        <v>157.6675138592233</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1472,22 +1325,22 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="G10">
-        <v>65.68000000000001</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>157.6675138592233</v>
+        <v>152.065055</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1501,22 +1354,19 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="G11">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>152.065055</v>
-      </c>
-      <c r="I11" t="s">
-        <v>265</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1530,16 +1380,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G12">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>1.333333333333333</v>
@@ -1556,16 +1406,16 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G13">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>1.333333333333333</v>
@@ -1582,16 +1432,16 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G14">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>1.333333333333333</v>
@@ -1608,16 +1458,16 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G15">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>1.333333333333333</v>
@@ -1634,16 +1484,16 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G16">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>1.333333333333333</v>
@@ -1660,16 +1510,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G17">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>1.333333333333333</v>
@@ -1686,16 +1536,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G18">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>1.333333333333333</v>
@@ -1712,16 +1562,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G19">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>1.333333333333333</v>
@@ -1738,16 +1588,16 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G20">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>1.333333333333333</v>
@@ -1764,16 +1614,16 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G21">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>1.333333333333333</v>
@@ -1790,16 +1640,16 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G22">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>1.333333333333333</v>
@@ -1816,16 +1666,16 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G23">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>1.333333333333333</v>
@@ -1842,16 +1692,16 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G24">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>1.333333333333333</v>
@@ -1868,16 +1718,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G25">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>1.333333333333333</v>
@@ -1894,16 +1744,16 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G26">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>1.333333333333333</v>
@@ -1920,16 +1770,16 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G27">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>1.333333333333333</v>
@@ -1946,16 +1796,16 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G28">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>1.333333333333333</v>
@@ -1972,16 +1822,16 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G29">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>1.333333333333333</v>
@@ -1998,16 +1848,16 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G30">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>1.333333333333333</v>
@@ -2024,16 +1874,16 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G31">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>1.333333333333333</v>
@@ -2050,16 +1900,16 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G32">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>1.333333333333333</v>
@@ -2076,16 +1926,16 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G33">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>1.333333333333333</v>
@@ -2102,16 +1952,16 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G34">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H34">
         <v>1.333333333333333</v>
@@ -2128,16 +1978,16 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G35">
-        <v>0.8499999999999943</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <v>1.333333333333333</v>
@@ -2154,13 +2004,13 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -2180,13 +2030,13 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -2206,13 +2056,13 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G38">
         <v>8</v>
@@ -2232,13 +2082,13 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -2258,13 +2108,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -2284,13 +2134,13 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -2310,13 +2160,13 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G42">
         <v>8</v>
@@ -2336,13 +2186,13 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -2362,13 +2212,13 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G44">
         <v>8</v>
@@ -2388,13 +2238,13 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -2414,13 +2264,13 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -2440,13 +2290,13 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G47">
         <v>8</v>
@@ -2466,13 +2316,13 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G48">
         <v>8</v>
@@ -2492,13 +2342,13 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2518,13 +2368,13 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -2544,13 +2394,13 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -2570,13 +2420,13 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -2596,13 +2446,13 @@
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G53">
         <v>8</v>
@@ -2622,13 +2472,13 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -2648,16 +2498,16 @@
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H55">
         <v>1.333333333333333</v>
@@ -2674,16 +2524,16 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H56">
         <v>1.333333333333333</v>
@@ -2700,16 +2550,16 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H57">
         <v>1.333333333333333</v>
@@ -2726,16 +2576,16 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H58">
         <v>1.333333333333333</v>
@@ -2752,16 +2602,16 @@
         <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H59">
         <v>1.333333333333333</v>
@@ -2778,16 +2628,16 @@
         <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H60">
         <v>1.333333333333333</v>
@@ -2804,16 +2654,16 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H61">
         <v>1.333333333333333</v>
@@ -2830,16 +2680,16 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H62">
         <v>1.333333333333333</v>
@@ -2856,16 +2706,16 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H63">
         <v>1.333333333333333</v>
@@ -2882,16 +2732,16 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H64">
         <v>1.333333333333333</v>
@@ -2908,16 +2758,16 @@
         <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H65">
         <v>1.333333333333333</v>
@@ -2934,16 +2784,16 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G66">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H66">
         <v>1.333333333333333</v>
@@ -2960,16 +2810,16 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H67">
         <v>1.333333333333333</v>
@@ -2986,16 +2836,16 @@
         <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G68">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H68">
         <v>1.333333333333333</v>
@@ -3012,16 +2862,16 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H69">
         <v>1.333333333333333</v>
@@ -3038,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E70" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H70">
         <v>1.333333333333333</v>
@@ -3064,16 +2914,16 @@
         <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H71">
         <v>1.333333333333333</v>
@@ -3090,16 +2940,16 @@
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="F72" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H72">
         <v>1.333333333333333</v>
@@ -3116,16 +2966,16 @@
         <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H73">
         <v>1.333333333333333</v>
@@ -3142,16 +2992,16 @@
         <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H74">
         <v>1.333333333333333</v>
@@ -3168,16 +3018,16 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H75">
         <v>1.333333333333333</v>
@@ -3194,16 +3044,16 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H76">
         <v>1.333333333333333</v>
@@ -3220,16 +3070,16 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H77">
         <v>1.333333333333333</v>
@@ -3246,16 +3096,16 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H78">
         <v>1.333333333333333</v>
@@ -3272,13 +3122,13 @@
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G79">
         <v>8</v>
@@ -3298,22 +3148,22 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G80">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H80">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3324,22 +3174,22 @@
         <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F81" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G81">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H81">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3350,22 +3200,22 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G82">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H82">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3376,22 +3226,22 @@
         <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G83">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H83">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3402,22 +3252,22 @@
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H84">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3428,22 +3278,25 @@
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G85">
-        <v>24</v>
+        <v>29.4</v>
       </c>
       <c r="H85">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3454,22 +3307,25 @@
         <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F86" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G86">
-        <v>24</v>
+        <v>29.4</v>
       </c>
       <c r="H86">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3480,22 +3336,25 @@
         <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G87">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H87">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3506,22 +3365,25 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G88">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H88">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3532,22 +3394,25 @@
         <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G89">
-        <v>24</v>
+        <v>52.9200000000003</v>
       </c>
       <c r="H89">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3558,22 +3423,25 @@
         <v>98</v>
       </c>
       <c r="D90" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="F90" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G90">
-        <v>24</v>
+        <v>52.9200000000003</v>
       </c>
       <c r="H90">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3584,22 +3452,25 @@
         <v>99</v>
       </c>
       <c r="D91" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G91">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3610,22 +3481,25 @@
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F92" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G92">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H92">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3636,22 +3510,25 @@
         <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G93">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H93">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3662,22 +3539,25 @@
         <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E94" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F94" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G94">
         <v>24</v>
       </c>
       <c r="H94">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3688,22 +3568,25 @@
         <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G95">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H95">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3714,19 +3597,22 @@
         <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="F96" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G96">
-        <v>24</v>
+        <v>43.26000000000022</v>
       </c>
       <c r="H96">
-        <v>1.333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3740,19 +3626,22 @@
         <v>105</v>
       </c>
       <c r="D97" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G97">
-        <v>24</v>
+        <v>43.26000000000022</v>
       </c>
       <c r="H97">
-        <v>1.333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3766,19 +3655,22 @@
         <v>106</v>
       </c>
       <c r="D98" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E98" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F98" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G98">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H98">
-        <v>1.333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3792,743 +3684,22 @@
         <v>107</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G99">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H99">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100" t="s">
-        <v>230</v>
-      </c>
-      <c r="E100" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" t="s">
-        <v>257</v>
-      </c>
-      <c r="G100">
-        <v>24</v>
-      </c>
-      <c r="H100">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>109</v>
-      </c>
-      <c r="D101" t="s">
-        <v>231</v>
-      </c>
-      <c r="E101" t="s">
-        <v>232</v>
-      </c>
-      <c r="F101" t="s">
-        <v>257</v>
-      </c>
-      <c r="G101">
-        <v>24</v>
-      </c>
-      <c r="H101">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>110</v>
-      </c>
-      <c r="D102" t="s">
-        <v>232</v>
-      </c>
-      <c r="E102" t="s">
-        <v>233</v>
-      </c>
-      <c r="F102" t="s">
-        <v>257</v>
-      </c>
-      <c r="G102">
-        <v>24</v>
-      </c>
-      <c r="H102">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103" t="s">
-        <v>233</v>
-      </c>
-      <c r="E103" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103" t="s">
-        <v>257</v>
-      </c>
-      <c r="G103">
-        <v>24</v>
-      </c>
-      <c r="H103">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" t="s">
-        <v>235</v>
-      </c>
-      <c r="F104" t="s">
-        <v>257</v>
-      </c>
-      <c r="G104">
-        <v>8</v>
-      </c>
-      <c r="H104">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" t="s">
-        <v>236</v>
-      </c>
-      <c r="F105" t="s">
-        <v>257</v>
-      </c>
-      <c r="G105">
-        <v>8</v>
-      </c>
-      <c r="H105">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106" t="s">
-        <v>237</v>
-      </c>
-      <c r="F106" t="s">
-        <v>257</v>
-      </c>
-      <c r="G106">
-        <v>8</v>
-      </c>
-      <c r="H106">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" t="s">
-        <v>237</v>
-      </c>
-      <c r="E107" t="s">
-        <v>238</v>
-      </c>
-      <c r="F107" t="s">
-        <v>257</v>
-      </c>
-      <c r="G107">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" t="s">
-        <v>239</v>
-      </c>
-      <c r="F108" t="s">
-        <v>257</v>
-      </c>
-      <c r="G108">
-        <v>8</v>
-      </c>
-      <c r="H108">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D109" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" t="s">
-        <v>141</v>
-      </c>
-      <c r="F109" t="s">
-        <v>257</v>
-      </c>
-      <c r="G109">
-        <v>8</v>
-      </c>
-      <c r="H109">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" t="s">
-        <v>118</v>
-      </c>
-      <c r="D110" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" t="s">
-        <v>134</v>
-      </c>
-      <c r="F110" t="s">
-        <v>258</v>
-      </c>
-      <c r="G110">
-        <v>80.84999999999999</v>
-      </c>
-      <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" t="s">
-        <v>139</v>
-      </c>
-      <c r="E111" t="s">
-        <v>250</v>
-      </c>
-      <c r="F111" t="s">
-        <v>259</v>
-      </c>
-      <c r="G111">
-        <v>80</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>120</v>
-      </c>
-      <c r="D112" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" t="s">
-        <v>250</v>
-      </c>
-      <c r="F112" t="s">
-        <v>259</v>
-      </c>
-      <c r="G112">
-        <v>0.8499999999999943</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>121</v>
-      </c>
-      <c r="D113" t="s">
-        <v>241</v>
-      </c>
-      <c r="E113" t="s">
-        <v>136</v>
-      </c>
-      <c r="F113" t="s">
-        <v>258</v>
-      </c>
-      <c r="G113">
-        <v>63</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" t="s">
-        <v>242</v>
-      </c>
-      <c r="E114" t="s">
-        <v>251</v>
-      </c>
-      <c r="F114" t="s">
-        <v>259</v>
-      </c>
-      <c r="G114">
-        <v>63</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>123</v>
-      </c>
-      <c r="D115" t="s">
-        <v>243</v>
-      </c>
-      <c r="E115" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" t="s">
-        <v>258</v>
-      </c>
-      <c r="G115">
-        <v>70.5600000000007</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" t="s">
-        <v>124</v>
-      </c>
-      <c r="D116" t="s">
-        <v>244</v>
-      </c>
-      <c r="E116" t="s">
-        <v>252</v>
-      </c>
-      <c r="F116" t="s">
-        <v>259</v>
-      </c>
-      <c r="G116">
-        <v>70.5600000000007</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" t="s">
-        <v>245</v>
-      </c>
-      <c r="E117" t="s">
-        <v>142</v>
-      </c>
-      <c r="F117" t="s">
-        <v>258</v>
-      </c>
-      <c r="G117">
-        <v>8</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" t="s">
-        <v>245</v>
-      </c>
-      <c r="E118" t="s">
-        <v>139</v>
-      </c>
-      <c r="F118" t="s">
-        <v>258</v>
-      </c>
-      <c r="G118">
-        <v>104</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119" t="s">
-        <v>253</v>
-      </c>
-      <c r="F119" t="s">
-        <v>259</v>
-      </c>
-      <c r="G119">
-        <v>80</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>128</v>
-      </c>
-      <c r="D120" t="s">
-        <v>246</v>
-      </c>
-      <c r="E120" t="s">
-        <v>253</v>
-      </c>
-      <c r="F120" t="s">
-        <v>259</v>
-      </c>
-      <c r="G120">
-        <v>24</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>129</v>
-      </c>
-      <c r="D121" t="s">
-        <v>247</v>
-      </c>
-      <c r="E121" t="s">
-        <v>253</v>
-      </c>
-      <c r="F121" t="s">
-        <v>259</v>
-      </c>
-      <c r="G121">
-        <v>8</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>130</v>
-      </c>
-      <c r="D122" t="s">
-        <v>248</v>
-      </c>
-      <c r="E122" t="s">
-        <v>142</v>
-      </c>
-      <c r="F122" t="s">
-        <v>258</v>
-      </c>
-      <c r="G122">
-        <v>57.68</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" t="s">
-        <v>167</v>
-      </c>
-      <c r="E123" t="s">
-        <v>254</v>
-      </c>
-      <c r="F123" t="s">
-        <v>259</v>
-      </c>
-      <c r="G123">
-        <v>57.68</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" t="s">
-        <v>143</v>
-      </c>
-      <c r="F124" t="s">
-        <v>258</v>
-      </c>
-      <c r="G124">
-        <v>49</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D125" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" t="s">
-        <v>255</v>
-      </c>
-      <c r="F125" t="s">
-        <v>259</v>
-      </c>
-      <c r="G125">
-        <v>49</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
-        <v>265</v>
+      <c r="I99" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4552,16 +3723,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -4569,33 +3740,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="C2">
-        <v>80.84999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="D2">
-        <v>80.84999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="E2">
-        <v>80.85000000000002</v>
+        <v>154.35</v>
       </c>
       <c r="F2">
-        <v>99.99999999999997</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>112</v>
@@ -4610,15 +3781,15 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -4633,15 +3804,15 @@
         <v>78.75</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C5">
         <v>49</v>
@@ -4656,53 +3827,53 @@
         <v>61.25000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="C6">
-        <v>70.5600000000007</v>
+        <v>52.9200000000003</v>
       </c>
       <c r="D6">
-        <v>70.5600000000007</v>
+        <v>52.9200000000003</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6">
-        <v>88.20000000000088</v>
+        <v>66.15000000000038</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="C7">
-        <v>57.68</v>
+        <v>43.26000000000022</v>
       </c>
       <c r="D7">
-        <v>57.68</v>
+        <v>43.26000000000022</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>121.1280000000007</v>
       </c>
       <c r="F7">
-        <v>72.09999999999999</v>
+        <v>35.71428571428569</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/TS_Subproblem_Solution.xlsx
+++ b/MILP/model_output/TS_Subproblem_Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="322">
   <si>
     <t>origin_id</t>
   </si>
@@ -50,250 +50,427 @@
     <t>train_1_3_dMo_t19</t>
   </si>
   <si>
+    <t>train_1_3_dTu_t43</t>
+  </si>
+  <si>
+    <t>train_1_3_dWe_t67</t>
+  </si>
+  <si>
+    <t>train_1_3_dTh_t91</t>
+  </si>
+  <si>
+    <t>train_1_4_dMo_t19</t>
+  </si>
+  <si>
     <t>train_1_5_dMo_t18</t>
   </si>
   <si>
-    <t>train_2_3_dFallback0_t12</t>
-  </si>
-  <si>
-    <t>train_2_3_dFallback2_t60</t>
-  </si>
-  <si>
-    <t>train_3_1_dMo_t22</t>
-  </si>
-  <si>
-    <t>train_3_1_dTu_t46</t>
-  </si>
-  <si>
-    <t>train_3_1_dWe_t70</t>
-  </si>
-  <si>
-    <t>train_3_2_dFallback0_t12</t>
+    <t>train_4_1_dWe_t68</t>
   </si>
   <si>
     <t>train_5_1_dMo_t15</t>
   </si>
   <si>
-    <t>dwell_2_t16</t>
-  </si>
-  <si>
-    <t>dwell_2_t17</t>
-  </si>
-  <si>
-    <t>dwell_2_t18</t>
-  </si>
-  <si>
-    <t>dwell_2_t19</t>
-  </si>
-  <si>
-    <t>dwell_2_t20</t>
-  </si>
-  <si>
-    <t>dwell_2_t21</t>
-  </si>
-  <si>
-    <t>dwell_2_t22</t>
-  </si>
-  <si>
-    <t>dwell_2_t23</t>
-  </si>
-  <si>
-    <t>dwell_2_t24</t>
-  </si>
-  <si>
-    <t>dwell_2_t25</t>
-  </si>
-  <si>
-    <t>dwell_2_t26</t>
-  </si>
-  <si>
-    <t>dwell_2_t27</t>
-  </si>
-  <si>
-    <t>dwell_2_t28</t>
-  </si>
-  <si>
-    <t>dwell_2_t29</t>
-  </si>
-  <si>
-    <t>dwell_2_t30</t>
-  </si>
-  <si>
-    <t>dwell_2_t31</t>
-  </si>
-  <si>
-    <t>dwell_2_t32</t>
-  </si>
-  <si>
-    <t>dwell_2_t33</t>
-  </si>
-  <si>
-    <t>dwell_2_t34</t>
-  </si>
-  <si>
-    <t>dwell_2_t35</t>
-  </si>
-  <si>
-    <t>dwell_2_t36</t>
-  </si>
-  <si>
-    <t>dwell_2_t37</t>
-  </si>
-  <si>
-    <t>dwell_2_t38</t>
-  </si>
-  <si>
-    <t>dwell_2_t39</t>
-  </si>
-  <si>
-    <t>dwell_2_t40</t>
-  </si>
-  <si>
-    <t>dwell_2_t41</t>
-  </si>
-  <si>
-    <t>dwell_2_t42</t>
-  </si>
-  <si>
-    <t>dwell_2_t43</t>
-  </si>
-  <si>
-    <t>dwell_2_t44</t>
-  </si>
-  <si>
-    <t>dwell_2_t45</t>
-  </si>
-  <si>
-    <t>dwell_2_t46</t>
-  </si>
-  <si>
-    <t>dwell_2_t47</t>
-  </si>
-  <si>
-    <t>dwell_2_t48</t>
-  </si>
-  <si>
-    <t>dwell_2_t49</t>
-  </si>
-  <si>
-    <t>dwell_2_t50</t>
-  </si>
-  <si>
-    <t>dwell_2_t51</t>
-  </si>
-  <si>
-    <t>dwell_2_t52</t>
-  </si>
-  <si>
-    <t>dwell_2_t53</t>
-  </si>
-  <si>
-    <t>dwell_2_t54</t>
-  </si>
-  <si>
-    <t>dwell_2_t55</t>
-  </si>
-  <si>
-    <t>dwell_2_t56</t>
-  </si>
-  <si>
-    <t>dwell_2_t57</t>
-  </si>
-  <si>
-    <t>dwell_2_t58</t>
-  </si>
-  <si>
-    <t>dwell_2_t59</t>
-  </si>
-  <si>
-    <t>dwell_3_t22</t>
-  </si>
-  <si>
-    <t>dwell_3_t23</t>
-  </si>
-  <si>
-    <t>dwell_3_t24</t>
-  </si>
-  <si>
-    <t>dwell_3_t25</t>
-  </si>
-  <si>
-    <t>dwell_3_t26</t>
-  </si>
-  <si>
-    <t>dwell_3_t27</t>
-  </si>
-  <si>
-    <t>dwell_3_t28</t>
-  </si>
-  <si>
-    <t>dwell_3_t29</t>
-  </si>
-  <si>
-    <t>dwell_3_t30</t>
-  </si>
-  <si>
-    <t>dwell_3_t31</t>
-  </si>
-  <si>
-    <t>dwell_3_t32</t>
-  </si>
-  <si>
-    <t>dwell_3_t33</t>
-  </si>
-  <si>
-    <t>dwell_3_t34</t>
-  </si>
-  <si>
-    <t>dwell_3_t35</t>
-  </si>
-  <si>
-    <t>dwell_3_t36</t>
-  </si>
-  <si>
-    <t>dwell_3_t37</t>
-  </si>
-  <si>
-    <t>dwell_3_t38</t>
-  </si>
-  <si>
-    <t>dwell_3_t39</t>
-  </si>
-  <si>
-    <t>dwell_3_t40</t>
-  </si>
-  <si>
-    <t>dwell_3_t41</t>
-  </si>
-  <si>
-    <t>dwell_3_t42</t>
-  </si>
-  <si>
-    <t>dwell_3_t43</t>
-  </si>
-  <si>
-    <t>dwell_3_t44</t>
-  </si>
-  <si>
-    <t>dwell_3_t45</t>
-  </si>
-  <si>
-    <t>dwell_3_t64</t>
-  </si>
-  <si>
-    <t>dwell_3_t65</t>
-  </si>
-  <si>
-    <t>dwell_3_t66</t>
-  </si>
-  <si>
-    <t>dwell_3_t67</t>
-  </si>
-  <si>
-    <t>dwell_3_t68</t>
-  </si>
-  <si>
-    <t>dwell_3_t69</t>
+    <t>train_5_1_dWe_t63</t>
+  </si>
+  <si>
+    <t>dwell_1_t19</t>
+  </si>
+  <si>
+    <t>dwell_1_t20</t>
+  </si>
+  <si>
+    <t>dwell_1_t21</t>
+  </si>
+  <si>
+    <t>dwell_1_t22</t>
+  </si>
+  <si>
+    <t>dwell_1_t23</t>
+  </si>
+  <si>
+    <t>dwell_1_t24</t>
+  </si>
+  <si>
+    <t>dwell_1_t25</t>
+  </si>
+  <si>
+    <t>dwell_1_t26</t>
+  </si>
+  <si>
+    <t>dwell_1_t27</t>
+  </si>
+  <si>
+    <t>dwell_1_t28</t>
+  </si>
+  <si>
+    <t>dwell_1_t29</t>
+  </si>
+  <si>
+    <t>dwell_1_t30</t>
+  </si>
+  <si>
+    <t>dwell_1_t31</t>
+  </si>
+  <si>
+    <t>dwell_1_t32</t>
+  </si>
+  <si>
+    <t>dwell_1_t33</t>
+  </si>
+  <si>
+    <t>dwell_1_t34</t>
+  </si>
+  <si>
+    <t>dwell_1_t35</t>
+  </si>
+  <si>
+    <t>dwell_1_t36</t>
+  </si>
+  <si>
+    <t>dwell_1_t37</t>
+  </si>
+  <si>
+    <t>dwell_1_t38</t>
+  </si>
+  <si>
+    <t>dwell_1_t39</t>
+  </si>
+  <si>
+    <t>dwell_1_t40</t>
+  </si>
+  <si>
+    <t>dwell_1_t41</t>
+  </si>
+  <si>
+    <t>dwell_1_t42</t>
+  </si>
+  <si>
+    <t>dwell_1_t66</t>
+  </si>
+  <si>
+    <t>dwell_1_t71</t>
+  </si>
+  <si>
+    <t>dwell_1_t72</t>
+  </si>
+  <si>
+    <t>dwell_1_t73</t>
+  </si>
+  <si>
+    <t>dwell_1_t74</t>
+  </si>
+  <si>
+    <t>dwell_1_t75</t>
+  </si>
+  <si>
+    <t>dwell_1_t76</t>
+  </si>
+  <si>
+    <t>dwell_1_t77</t>
+  </si>
+  <si>
+    <t>dwell_1_t78</t>
+  </si>
+  <si>
+    <t>dwell_1_t79</t>
+  </si>
+  <si>
+    <t>dwell_1_t80</t>
+  </si>
+  <si>
+    <t>dwell_1_t81</t>
+  </si>
+  <si>
+    <t>dwell_1_t82</t>
+  </si>
+  <si>
+    <t>dwell_1_t83</t>
+  </si>
+  <si>
+    <t>dwell_1_t84</t>
+  </si>
+  <si>
+    <t>dwell_1_t85</t>
+  </si>
+  <si>
+    <t>dwell_1_t86</t>
+  </si>
+  <si>
+    <t>dwell_1_t87</t>
+  </si>
+  <si>
+    <t>dwell_1_t88</t>
+  </si>
+  <si>
+    <t>dwell_1_t89</t>
+  </si>
+  <si>
+    <t>dwell_1_t90</t>
+  </si>
+  <si>
+    <t>dwell_4_t22</t>
+  </si>
+  <si>
+    <t>dwell_4_t23</t>
+  </si>
+  <si>
+    <t>dwell_4_t24</t>
+  </si>
+  <si>
+    <t>dwell_4_t25</t>
+  </si>
+  <si>
+    <t>dwell_4_t26</t>
+  </si>
+  <si>
+    <t>dwell_4_t27</t>
+  </si>
+  <si>
+    <t>dwell_4_t28</t>
+  </si>
+  <si>
+    <t>dwell_4_t29</t>
+  </si>
+  <si>
+    <t>dwell_4_t30</t>
+  </si>
+  <si>
+    <t>dwell_4_t31</t>
+  </si>
+  <si>
+    <t>dwell_4_t32</t>
+  </si>
+  <si>
+    <t>dwell_4_t33</t>
+  </si>
+  <si>
+    <t>dwell_4_t34</t>
+  </si>
+  <si>
+    <t>dwell_4_t35</t>
+  </si>
+  <si>
+    <t>dwell_4_t36</t>
+  </si>
+  <si>
+    <t>dwell_4_t37</t>
+  </si>
+  <si>
+    <t>dwell_4_t38</t>
+  </si>
+  <si>
+    <t>dwell_4_t39</t>
+  </si>
+  <si>
+    <t>dwell_4_t40</t>
+  </si>
+  <si>
+    <t>dwell_4_t41</t>
+  </si>
+  <si>
+    <t>dwell_4_t42</t>
+  </si>
+  <si>
+    <t>dwell_4_t43</t>
+  </si>
+  <si>
+    <t>dwell_4_t44</t>
+  </si>
+  <si>
+    <t>dwell_4_t45</t>
+  </si>
+  <si>
+    <t>dwell_4_t46</t>
+  </si>
+  <si>
+    <t>dwell_4_t47</t>
+  </si>
+  <si>
+    <t>dwell_4_t48</t>
+  </si>
+  <si>
+    <t>dwell_4_t49</t>
+  </si>
+  <si>
+    <t>dwell_4_t50</t>
+  </si>
+  <si>
+    <t>dwell_4_t51</t>
+  </si>
+  <si>
+    <t>dwell_4_t52</t>
+  </si>
+  <si>
+    <t>dwell_4_t53</t>
+  </si>
+  <si>
+    <t>dwell_4_t54</t>
+  </si>
+  <si>
+    <t>dwell_4_t55</t>
+  </si>
+  <si>
+    <t>dwell_4_t56</t>
+  </si>
+  <si>
+    <t>dwell_4_t57</t>
+  </si>
+  <si>
+    <t>dwell_4_t58</t>
+  </si>
+  <si>
+    <t>dwell_4_t59</t>
+  </si>
+  <si>
+    <t>dwell_4_t60</t>
+  </si>
+  <si>
+    <t>dwell_4_t61</t>
+  </si>
+  <si>
+    <t>dwell_4_t62</t>
+  </si>
+  <si>
+    <t>dwell_4_t63</t>
+  </si>
+  <si>
+    <t>dwell_4_t64</t>
+  </si>
+  <si>
+    <t>dwell_4_t65</t>
+  </si>
+  <si>
+    <t>dwell_4_t66</t>
+  </si>
+  <si>
+    <t>dwell_4_t67</t>
+  </si>
+  <si>
+    <t>dwell_5_t22</t>
+  </si>
+  <si>
+    <t>dwell_5_t23</t>
+  </si>
+  <si>
+    <t>dwell_5_t24</t>
+  </si>
+  <si>
+    <t>dwell_5_t25</t>
+  </si>
+  <si>
+    <t>dwell_5_t26</t>
+  </si>
+  <si>
+    <t>dwell_5_t27</t>
+  </si>
+  <si>
+    <t>dwell_5_t28</t>
+  </si>
+  <si>
+    <t>dwell_5_t29</t>
+  </si>
+  <si>
+    <t>dwell_5_t30</t>
+  </si>
+  <si>
+    <t>dwell_5_t31</t>
+  </si>
+  <si>
+    <t>dwell_5_t32</t>
+  </si>
+  <si>
+    <t>dwell_5_t33</t>
+  </si>
+  <si>
+    <t>dwell_5_t34</t>
+  </si>
+  <si>
+    <t>dwell_5_t35</t>
+  </si>
+  <si>
+    <t>dwell_5_t36</t>
+  </si>
+  <si>
+    <t>dwell_5_t37</t>
+  </si>
+  <si>
+    <t>dwell_5_t38</t>
+  </si>
+  <si>
+    <t>dwell_5_t39</t>
+  </si>
+  <si>
+    <t>dwell_5_t40</t>
+  </si>
+  <si>
+    <t>dwell_5_t41</t>
+  </si>
+  <si>
+    <t>dwell_5_t42</t>
+  </si>
+  <si>
+    <t>dwell_5_t43</t>
+  </si>
+  <si>
+    <t>dwell_5_t44</t>
+  </si>
+  <si>
+    <t>dwell_5_t45</t>
+  </si>
+  <si>
+    <t>dwell_5_t46</t>
+  </si>
+  <si>
+    <t>dwell_5_t47</t>
+  </si>
+  <si>
+    <t>dwell_5_t48</t>
+  </si>
+  <si>
+    <t>dwell_5_t49</t>
+  </si>
+  <si>
+    <t>dwell_5_t50</t>
+  </si>
+  <si>
+    <t>dwell_5_t51</t>
+  </si>
+  <si>
+    <t>dwell_5_t52</t>
+  </si>
+  <si>
+    <t>dwell_5_t53</t>
+  </si>
+  <si>
+    <t>dwell_5_t54</t>
+  </si>
+  <si>
+    <t>dwell_5_t55</t>
+  </si>
+  <si>
+    <t>dwell_5_t56</t>
+  </si>
+  <si>
+    <t>dwell_5_t57</t>
+  </si>
+  <si>
+    <t>dwell_5_t58</t>
+  </si>
+  <si>
+    <t>dwell_5_t59</t>
+  </si>
+  <si>
+    <t>dwell_5_t60</t>
+  </si>
+  <si>
+    <t>dwell_5_t61</t>
+  </si>
+  <si>
+    <t>dwell_5_t62</t>
+  </si>
+  <si>
+    <t>entry_Aarau_Chiasso_t18</t>
   </si>
   <si>
     <t>entry_Aarau_Chiasso_t19</t>
@@ -302,37 +479,13 @@
     <t>exit_Aarau_Chiasso_t22</t>
   </si>
   <si>
-    <t>entry_Aarau_Visp_t18</t>
-  </si>
-  <si>
-    <t>exit_Aarau_Visp_t22</t>
-  </si>
-  <si>
-    <t>entry_Baselwolf_Chiasso_t12</t>
-  </si>
-  <si>
-    <t>exit_Baselwolf_Chiasso_t16</t>
-  </si>
-  <si>
-    <t>entry_Chiasso_Aarau_t12</t>
-  </si>
-  <si>
-    <t>entry_Chiasso_Aarau_t22</t>
-  </si>
-  <si>
-    <t>exit_Chiasso_Aarau_t25</t>
-  </si>
-  <si>
-    <t>exit_Chiasso_Aarau_t49</t>
-  </si>
-  <si>
-    <t>exit_Chiasso_Aarau_t73</t>
-  </si>
-  <si>
-    <t>entry_Chiasso_Baselwolf_t12</t>
-  </si>
-  <si>
-    <t>exit_Chiasso_Baselwolf_t16</t>
+    <t>exit_Aarau_Chiasso_t46</t>
+  </si>
+  <si>
+    <t>exit_Aarau_Chiasso_t70</t>
+  </si>
+  <si>
+    <t>exit_Aarau_Chiasso_t94</t>
   </si>
   <si>
     <t>entry_Visp_Aarau_t15</t>
@@ -344,13 +497,421 @@
     <t>Node1_t19</t>
   </si>
   <si>
+    <t>Node1_t43</t>
+  </si>
+  <si>
+    <t>Node1_t67</t>
+  </si>
+  <si>
+    <t>Node1_t91</t>
+  </si>
+  <si>
     <t>Node1_t18</t>
   </si>
   <si>
-    <t>Node2_t12</t>
-  </si>
-  <si>
-    <t>Node2_t60</t>
+    <t>Node4_t68</t>
+  </si>
+  <si>
+    <t>Node5_t15</t>
+  </si>
+  <si>
+    <t>Node5_t63</t>
+  </si>
+  <si>
+    <t>Node1_t20</t>
+  </si>
+  <si>
+    <t>Node1_t21</t>
+  </si>
+  <si>
+    <t>Node1_t22</t>
+  </si>
+  <si>
+    <t>Node1_t23</t>
+  </si>
+  <si>
+    <t>Node1_t24</t>
+  </si>
+  <si>
+    <t>Node1_t25</t>
+  </si>
+  <si>
+    <t>Node1_t26</t>
+  </si>
+  <si>
+    <t>Node1_t27</t>
+  </si>
+  <si>
+    <t>Node1_t28</t>
+  </si>
+  <si>
+    <t>Node1_t29</t>
+  </si>
+  <si>
+    <t>Node1_t30</t>
+  </si>
+  <si>
+    <t>Node1_t31</t>
+  </si>
+  <si>
+    <t>Node1_t32</t>
+  </si>
+  <si>
+    <t>Node1_t33</t>
+  </si>
+  <si>
+    <t>Node1_t34</t>
+  </si>
+  <si>
+    <t>Node1_t35</t>
+  </si>
+  <si>
+    <t>Node1_t36</t>
+  </si>
+  <si>
+    <t>Node1_t37</t>
+  </si>
+  <si>
+    <t>Node1_t38</t>
+  </si>
+  <si>
+    <t>Node1_t39</t>
+  </si>
+  <si>
+    <t>Node1_t40</t>
+  </si>
+  <si>
+    <t>Node1_t41</t>
+  </si>
+  <si>
+    <t>Node1_t42</t>
+  </si>
+  <si>
+    <t>Node1_t66</t>
+  </si>
+  <si>
+    <t>Node1_t71</t>
+  </si>
+  <si>
+    <t>Node1_t72</t>
+  </si>
+  <si>
+    <t>Node1_t73</t>
+  </si>
+  <si>
+    <t>Node1_t74</t>
+  </si>
+  <si>
+    <t>Node1_t75</t>
+  </si>
+  <si>
+    <t>Node1_t76</t>
+  </si>
+  <si>
+    <t>Node1_t77</t>
+  </si>
+  <si>
+    <t>Node1_t78</t>
+  </si>
+  <si>
+    <t>Node1_t79</t>
+  </si>
+  <si>
+    <t>Node1_t80</t>
+  </si>
+  <si>
+    <t>Node1_t81</t>
+  </si>
+  <si>
+    <t>Node1_t82</t>
+  </si>
+  <si>
+    <t>Node1_t83</t>
+  </si>
+  <si>
+    <t>Node1_t84</t>
+  </si>
+  <si>
+    <t>Node1_t85</t>
+  </si>
+  <si>
+    <t>Node1_t86</t>
+  </si>
+  <si>
+    <t>Node1_t87</t>
+  </si>
+  <si>
+    <t>Node1_t88</t>
+  </si>
+  <si>
+    <t>Node1_t89</t>
+  </si>
+  <si>
+    <t>Node1_t90</t>
+  </si>
+  <si>
+    <t>Node4_t22</t>
+  </si>
+  <si>
+    <t>Node4_t23</t>
+  </si>
+  <si>
+    <t>Node4_t24</t>
+  </si>
+  <si>
+    <t>Node4_t25</t>
+  </si>
+  <si>
+    <t>Node4_t26</t>
+  </si>
+  <si>
+    <t>Node4_t27</t>
+  </si>
+  <si>
+    <t>Node4_t28</t>
+  </si>
+  <si>
+    <t>Node4_t29</t>
+  </si>
+  <si>
+    <t>Node4_t30</t>
+  </si>
+  <si>
+    <t>Node4_t31</t>
+  </si>
+  <si>
+    <t>Node4_t32</t>
+  </si>
+  <si>
+    <t>Node4_t33</t>
+  </si>
+  <si>
+    <t>Node4_t34</t>
+  </si>
+  <si>
+    <t>Node4_t35</t>
+  </si>
+  <si>
+    <t>Node4_t36</t>
+  </si>
+  <si>
+    <t>Node4_t37</t>
+  </si>
+  <si>
+    <t>Node4_t38</t>
+  </si>
+  <si>
+    <t>Node4_t39</t>
+  </si>
+  <si>
+    <t>Node4_t40</t>
+  </si>
+  <si>
+    <t>Node4_t41</t>
+  </si>
+  <si>
+    <t>Node4_t42</t>
+  </si>
+  <si>
+    <t>Node4_t43</t>
+  </si>
+  <si>
+    <t>Node4_t44</t>
+  </si>
+  <si>
+    <t>Node4_t45</t>
+  </si>
+  <si>
+    <t>Node4_t46</t>
+  </si>
+  <si>
+    <t>Node4_t47</t>
+  </si>
+  <si>
+    <t>Node4_t48</t>
+  </si>
+  <si>
+    <t>Node4_t49</t>
+  </si>
+  <si>
+    <t>Node4_t50</t>
+  </si>
+  <si>
+    <t>Node4_t51</t>
+  </si>
+  <si>
+    <t>Node4_t52</t>
+  </si>
+  <si>
+    <t>Node4_t53</t>
+  </si>
+  <si>
+    <t>Node4_t54</t>
+  </si>
+  <si>
+    <t>Node4_t55</t>
+  </si>
+  <si>
+    <t>Node4_t56</t>
+  </si>
+  <si>
+    <t>Node4_t57</t>
+  </si>
+  <si>
+    <t>Node4_t58</t>
+  </si>
+  <si>
+    <t>Node4_t59</t>
+  </si>
+  <si>
+    <t>Node4_t60</t>
+  </si>
+  <si>
+    <t>Node4_t61</t>
+  </si>
+  <si>
+    <t>Node4_t62</t>
+  </si>
+  <si>
+    <t>Node4_t63</t>
+  </si>
+  <si>
+    <t>Node4_t64</t>
+  </si>
+  <si>
+    <t>Node4_t65</t>
+  </si>
+  <si>
+    <t>Node4_t66</t>
+  </si>
+  <si>
+    <t>Node4_t67</t>
+  </si>
+  <si>
+    <t>Node5_t22</t>
+  </si>
+  <si>
+    <t>Node5_t23</t>
+  </si>
+  <si>
+    <t>Node5_t24</t>
+  </si>
+  <si>
+    <t>Node5_t25</t>
+  </si>
+  <si>
+    <t>Node5_t26</t>
+  </si>
+  <si>
+    <t>Node5_t27</t>
+  </si>
+  <si>
+    <t>Node5_t28</t>
+  </si>
+  <si>
+    <t>Node5_t29</t>
+  </si>
+  <si>
+    <t>Node5_t30</t>
+  </si>
+  <si>
+    <t>Node5_t31</t>
+  </si>
+  <si>
+    <t>Node5_t32</t>
+  </si>
+  <si>
+    <t>Node5_t33</t>
+  </si>
+  <si>
+    <t>Node5_t34</t>
+  </si>
+  <si>
+    <t>Node5_t35</t>
+  </si>
+  <si>
+    <t>Node5_t36</t>
+  </si>
+  <si>
+    <t>Node5_t37</t>
+  </si>
+  <si>
+    <t>Node5_t38</t>
+  </si>
+  <si>
+    <t>Node5_t39</t>
+  </si>
+  <si>
+    <t>Node5_t40</t>
+  </si>
+  <si>
+    <t>Node5_t41</t>
+  </si>
+  <si>
+    <t>Node5_t42</t>
+  </si>
+  <si>
+    <t>Node5_t43</t>
+  </si>
+  <si>
+    <t>Node5_t44</t>
+  </si>
+  <si>
+    <t>Node5_t45</t>
+  </si>
+  <si>
+    <t>Node5_t46</t>
+  </si>
+  <si>
+    <t>Node5_t47</t>
+  </si>
+  <si>
+    <t>Node5_t48</t>
+  </si>
+  <si>
+    <t>Node5_t49</t>
+  </si>
+  <si>
+    <t>Node5_t50</t>
+  </si>
+  <si>
+    <t>Node5_t51</t>
+  </si>
+  <si>
+    <t>Node5_t52</t>
+  </si>
+  <si>
+    <t>Node5_t53</t>
+  </si>
+  <si>
+    <t>Node5_t54</t>
+  </si>
+  <si>
+    <t>Node5_t55</t>
+  </si>
+  <si>
+    <t>Node5_t56</t>
+  </si>
+  <si>
+    <t>Node5_t57</t>
+  </si>
+  <si>
+    <t>Node5_t58</t>
+  </si>
+  <si>
+    <t>Node5_t59</t>
+  </si>
+  <si>
+    <t>Node5_t60</t>
+  </si>
+  <si>
+    <t>Node5_t61</t>
+  </si>
+  <si>
+    <t>Node5_t62</t>
+  </si>
+  <si>
+    <t>OD_Aarau_Chiasso_source</t>
   </si>
   <si>
     <t>Node3_t22</t>
@@ -362,259 +923,7 @@
     <t>Node3_t70</t>
   </si>
   <si>
-    <t>Node3_t12</t>
-  </si>
-  <si>
-    <t>Node5_t15</t>
-  </si>
-  <si>
-    <t>Node2_t16</t>
-  </si>
-  <si>
-    <t>Node2_t17</t>
-  </si>
-  <si>
-    <t>Node2_t18</t>
-  </si>
-  <si>
-    <t>Node2_t19</t>
-  </si>
-  <si>
-    <t>Node2_t20</t>
-  </si>
-  <si>
-    <t>Node2_t21</t>
-  </si>
-  <si>
-    <t>Node2_t22</t>
-  </si>
-  <si>
-    <t>Node2_t23</t>
-  </si>
-  <si>
-    <t>Node2_t24</t>
-  </si>
-  <si>
-    <t>Node2_t25</t>
-  </si>
-  <si>
-    <t>Node2_t26</t>
-  </si>
-  <si>
-    <t>Node2_t27</t>
-  </si>
-  <si>
-    <t>Node2_t28</t>
-  </si>
-  <si>
-    <t>Node2_t29</t>
-  </si>
-  <si>
-    <t>Node2_t30</t>
-  </si>
-  <si>
-    <t>Node2_t31</t>
-  </si>
-  <si>
-    <t>Node2_t32</t>
-  </si>
-  <si>
-    <t>Node2_t33</t>
-  </si>
-  <si>
-    <t>Node2_t34</t>
-  </si>
-  <si>
-    <t>Node2_t35</t>
-  </si>
-  <si>
-    <t>Node2_t36</t>
-  </si>
-  <si>
-    <t>Node2_t37</t>
-  </si>
-  <si>
-    <t>Node2_t38</t>
-  </si>
-  <si>
-    <t>Node2_t39</t>
-  </si>
-  <si>
-    <t>Node2_t40</t>
-  </si>
-  <si>
-    <t>Node2_t41</t>
-  </si>
-  <si>
-    <t>Node2_t42</t>
-  </si>
-  <si>
-    <t>Node2_t43</t>
-  </si>
-  <si>
-    <t>Node2_t44</t>
-  </si>
-  <si>
-    <t>Node2_t45</t>
-  </si>
-  <si>
-    <t>Node2_t46</t>
-  </si>
-  <si>
-    <t>Node2_t47</t>
-  </si>
-  <si>
-    <t>Node2_t48</t>
-  </si>
-  <si>
-    <t>Node2_t49</t>
-  </si>
-  <si>
-    <t>Node2_t50</t>
-  </si>
-  <si>
-    <t>Node2_t51</t>
-  </si>
-  <si>
-    <t>Node2_t52</t>
-  </si>
-  <si>
-    <t>Node2_t53</t>
-  </si>
-  <si>
-    <t>Node2_t54</t>
-  </si>
-  <si>
-    <t>Node2_t55</t>
-  </si>
-  <si>
-    <t>Node2_t56</t>
-  </si>
-  <si>
-    <t>Node2_t57</t>
-  </si>
-  <si>
-    <t>Node2_t58</t>
-  </si>
-  <si>
-    <t>Node2_t59</t>
-  </si>
-  <si>
-    <t>Node3_t23</t>
-  </si>
-  <si>
-    <t>Node3_t24</t>
-  </si>
-  <si>
-    <t>Node3_t25</t>
-  </si>
-  <si>
-    <t>Node3_t26</t>
-  </si>
-  <si>
-    <t>Node3_t27</t>
-  </si>
-  <si>
-    <t>Node3_t28</t>
-  </si>
-  <si>
-    <t>Node3_t29</t>
-  </si>
-  <si>
-    <t>Node3_t30</t>
-  </si>
-  <si>
-    <t>Node3_t31</t>
-  </si>
-  <si>
-    <t>Node3_t32</t>
-  </si>
-  <si>
-    <t>Node3_t33</t>
-  </si>
-  <si>
-    <t>Node3_t34</t>
-  </si>
-  <si>
-    <t>Node3_t35</t>
-  </si>
-  <si>
-    <t>Node3_t36</t>
-  </si>
-  <si>
-    <t>Node3_t37</t>
-  </si>
-  <si>
-    <t>Node3_t38</t>
-  </si>
-  <si>
-    <t>Node3_t39</t>
-  </si>
-  <si>
-    <t>Node3_t40</t>
-  </si>
-  <si>
-    <t>Node3_t41</t>
-  </si>
-  <si>
-    <t>Node3_t42</t>
-  </si>
-  <si>
-    <t>Node3_t43</t>
-  </si>
-  <si>
-    <t>Node3_t44</t>
-  </si>
-  <si>
-    <t>Node3_t45</t>
-  </si>
-  <si>
-    <t>Node3_t64</t>
-  </si>
-  <si>
-    <t>Node3_t65</t>
-  </si>
-  <si>
-    <t>Node3_t66</t>
-  </si>
-  <si>
-    <t>Node3_t67</t>
-  </si>
-  <si>
-    <t>Node3_t68</t>
-  </si>
-  <si>
-    <t>Node3_t69</t>
-  </si>
-  <si>
-    <t>OD_Aarau_Chiasso_source</t>
-  </si>
-  <si>
-    <t>OD_Aarau_Visp_source</t>
-  </si>
-  <si>
-    <t>Node5_t22</t>
-  </si>
-  <si>
-    <t>OD_Baselwolf_Chiasso_source</t>
-  </si>
-  <si>
-    <t>Node3_t16</t>
-  </si>
-  <si>
-    <t>OD_Chiasso_Aarau_source</t>
-  </si>
-  <si>
-    <t>Node1_t25</t>
-  </si>
-  <si>
-    <t>Node1_t49</t>
-  </si>
-  <si>
-    <t>Node1_t73</t>
-  </si>
-  <si>
-    <t>OD_Chiasso_Baselwolf_source</t>
+    <t>Node3_t94</t>
   </si>
   <si>
     <t>OD_Visp_Aarau_source</t>
@@ -623,18 +932,6 @@
     <t>OD_Aarau_Chiasso_sink</t>
   </si>
   <si>
-    <t>OD_Aarau_Visp_sink</t>
-  </si>
-  <si>
-    <t>OD_Baselwolf_Chiasso_sink</t>
-  </si>
-  <si>
-    <t>OD_Chiasso_Aarau_sink</t>
-  </si>
-  <si>
-    <t>OD_Chiasso_Baselwolf_sink</t>
-  </si>
-  <si>
     <t>OD_Visp_Aarau_sink</t>
   </si>
   <si>
@@ -653,16 +950,13 @@
     <t>Aarau-Chiasso_IM</t>
   </si>
   <si>
+    <t>Aarau-Stabio_IM</t>
+  </si>
+  <si>
     <t>Aarau-Visp_IM</t>
   </si>
   <si>
-    <t>Baselwolf-Chiasso_IM</t>
-  </si>
-  <si>
-    <t>Chiasso-Aarau_IM</t>
-  </si>
-  <si>
-    <t>Chiasso-Baselwolf_IM</t>
+    <t>Stabio-Aarau_IM</t>
   </si>
   <si>
     <t>Visp-Aarau_IM</t>
@@ -683,13 +977,10 @@
     <t>Aarau</t>
   </si>
   <si>
+    <t>Visp</t>
+  </si>
+  <si>
     <t>Chiasso</t>
-  </si>
-  <si>
-    <t>Visp</t>
-  </si>
-  <si>
-    <t>Baselwolf</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,22 +1384,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G2">
-        <v>29.4</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>155.63758</v>
       </c>
       <c r="I2" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1122,22 +1413,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>151.515715</v>
+        <v>155.63758</v>
       </c>
       <c r="I3" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1151,22 +1442,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G4">
-        <v>52.9200000000003</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>157.7173901587302</v>
+        <v>155.63758</v>
       </c>
       <c r="I4" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1180,22 +1471,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H5">
-        <v>157.7173901587302</v>
+        <v>155.63758</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1209,22 +1500,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H6">
-        <v>155.47652625</v>
+        <v>155.63758</v>
       </c>
       <c r="I6" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1238,22 +1529,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G7">
         <v>24</v>
       </c>
       <c r="H7">
-        <v>155.47652625</v>
+        <v>151.515715</v>
       </c>
       <c r="I7" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1267,22 +1558,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H8">
         <v>155.47652625</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1296,22 +1587,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G9">
-        <v>51.26000000000022</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>157.6675138592233</v>
+        <v>152.065055</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1325,22 +1616,22 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>152.065055</v>
       </c>
       <c r="I10" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1354,16 +1645,16 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>1.333333333333333</v>
@@ -1380,16 +1671,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>1.333333333333333</v>
@@ -1406,16 +1697,16 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>1.333333333333333</v>
@@ -1432,16 +1723,16 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>1.333333333333333</v>
@@ -1458,16 +1749,16 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>1.333333333333333</v>
@@ -1484,16 +1775,16 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>1.333333333333333</v>
@@ -1510,16 +1801,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>1.333333333333333</v>
@@ -1536,16 +1827,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H18">
         <v>1.333333333333333</v>
@@ -1562,16 +1853,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>1.333333333333333</v>
@@ -1588,16 +1879,16 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>1.333333333333333</v>
@@ -1614,16 +1905,16 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>1.333333333333333</v>
@@ -1640,16 +1931,16 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>1.333333333333333</v>
@@ -1666,16 +1957,16 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>1.333333333333333</v>
@@ -1692,16 +1983,16 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H24">
         <v>1.333333333333333</v>
@@ -1718,16 +2009,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <v>1.333333333333333</v>
@@ -1744,16 +2035,16 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <v>1.333333333333333</v>
@@ -1770,16 +2061,16 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H27">
         <v>1.333333333333333</v>
@@ -1796,16 +2087,16 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H28">
         <v>1.333333333333333</v>
@@ -1822,16 +2113,16 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H29">
         <v>1.333333333333333</v>
@@ -1848,16 +2139,16 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H30">
         <v>1.333333333333333</v>
@@ -1874,16 +2165,16 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H31">
         <v>1.333333333333333</v>
@@ -1900,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H32">
         <v>1.333333333333333</v>
@@ -1926,16 +2217,16 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H33">
         <v>1.333333333333333</v>
@@ -1952,16 +2243,16 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H34">
         <v>1.333333333333333</v>
@@ -1978,16 +2269,16 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H35">
         <v>1.333333333333333</v>
@@ -2004,16 +2295,16 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H36">
         <v>1.333333333333333</v>
@@ -2030,16 +2321,16 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H37">
         <v>1.333333333333333</v>
@@ -2056,16 +2347,16 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H38">
         <v>1.333333333333333</v>
@@ -2082,16 +2373,16 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H39">
         <v>1.333333333333333</v>
@@ -2108,16 +2399,16 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H40">
         <v>1.333333333333333</v>
@@ -2134,16 +2425,16 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H41">
         <v>1.333333333333333</v>
@@ -2160,16 +2451,16 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H42">
         <v>1.333333333333333</v>
@@ -2186,16 +2477,16 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H43">
         <v>1.333333333333333</v>
@@ -2212,16 +2503,16 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H44">
         <v>1.333333333333333</v>
@@ -2238,16 +2529,16 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H45">
         <v>1.333333333333333</v>
@@ -2264,16 +2555,16 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H46">
         <v>1.333333333333333</v>
@@ -2290,16 +2581,16 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H47">
         <v>1.333333333333333</v>
@@ -2316,16 +2607,16 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H48">
         <v>1.333333333333333</v>
@@ -2342,16 +2633,16 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H49">
         <v>1.333333333333333</v>
@@ -2368,16 +2659,16 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H50">
         <v>1.333333333333333</v>
@@ -2394,16 +2685,16 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H51">
         <v>1.333333333333333</v>
@@ -2420,16 +2711,16 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H52">
         <v>1.333333333333333</v>
@@ -2446,16 +2737,16 @@
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H53">
         <v>1.333333333333333</v>
@@ -2472,16 +2763,16 @@
         <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H54">
         <v>1.333333333333333</v>
@@ -2498,16 +2789,16 @@
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G55">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H55">
         <v>1.333333333333333</v>
@@ -2524,16 +2815,16 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G56">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H56">
         <v>1.333333333333333</v>
@@ -2550,16 +2841,16 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G57">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H57">
         <v>1.333333333333333</v>
@@ -2576,16 +2867,16 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G58">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H58">
         <v>1.333333333333333</v>
@@ -2602,16 +2893,16 @@
         <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H59">
         <v>1.333333333333333</v>
@@ -2628,16 +2919,16 @@
         <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G60">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H60">
         <v>1.333333333333333</v>
@@ -2654,16 +2945,16 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G61">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H61">
         <v>1.333333333333333</v>
@@ -2680,16 +2971,16 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G62">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H62">
         <v>1.333333333333333</v>
@@ -2706,16 +2997,16 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G63">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H63">
         <v>1.333333333333333</v>
@@ -2732,16 +3023,16 @@
         <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G64">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H64">
         <v>1.333333333333333</v>
@@ -2758,16 +3049,16 @@
         <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H65">
         <v>1.333333333333333</v>
@@ -2784,16 +3075,16 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G66">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H66">
         <v>1.333333333333333</v>
@@ -2810,16 +3101,16 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H67">
         <v>1.333333333333333</v>
@@ -2836,16 +3127,16 @@
         <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H68">
         <v>1.333333333333333</v>
@@ -2862,16 +3153,16 @@
         <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H69">
         <v>1.333333333333333</v>
@@ -2888,16 +3179,16 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="E70" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G70">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H70">
         <v>1.333333333333333</v>
@@ -2914,16 +3205,16 @@
         <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G71">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H71">
         <v>1.333333333333333</v>
@@ -2940,16 +3231,16 @@
         <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G72">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H72">
         <v>1.333333333333333</v>
@@ -2966,16 +3257,16 @@
         <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G73">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H73">
         <v>1.333333333333333</v>
@@ -2992,16 +3283,16 @@
         <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G74">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H74">
         <v>1.333333333333333</v>
@@ -3018,16 +3309,16 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G75">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H75">
         <v>1.333333333333333</v>
@@ -3044,16 +3335,16 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G76">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H76">
         <v>1.333333333333333</v>
@@ -3070,16 +3361,16 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G77">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H77">
         <v>1.333333333333333</v>
@@ -3096,16 +3387,16 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G78">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H78">
         <v>1.333333333333333</v>
@@ -3122,16 +3413,16 @@
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H79">
         <v>1.333333333333333</v>
@@ -3148,22 +3439,22 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H80">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3174,22 +3465,22 @@
         <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G81">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H81">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3200,22 +3491,22 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="F82" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G82">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H82">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3226,22 +3517,22 @@
         <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H83">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3252,22 +3543,22 @@
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H84">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3278,25 +3569,22 @@
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="F85" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G85">
-        <v>29.4</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3307,25 +3595,22 @@
         <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="F86" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G86">
-        <v>29.4</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3336,25 +3621,22 @@
         <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G87">
-        <v>63</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3365,25 +3647,22 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="F88" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G88">
-        <v>63</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3394,25 +3673,22 @@
         <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="F89" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G89">
-        <v>52.9200000000003</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3423,25 +3699,22 @@
         <v>98</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="F90" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G90">
-        <v>52.9200000000003</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3452,25 +3725,22 @@
         <v>99</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="E91" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="F91" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G91">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3481,25 +3751,22 @@
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G92">
-        <v>104</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3510,25 +3777,22 @@
         <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="F93" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G93">
-        <v>80</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3539,25 +3803,22 @@
         <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="F94" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G94">
-        <v>24</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3568,25 +3829,22 @@
         <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="F95" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3597,25 +3855,22 @@
         <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="E96" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="F96" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G96">
-        <v>43.26000000000022</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3626,25 +3881,22 @@
         <v>105</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="F97" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="G97">
-        <v>43.26000000000022</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3655,25 +3907,22 @@
         <v>106</v>
       </c>
       <c r="D98" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="F98" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G98">
-        <v>49</v>
+        <v>16.06000000000003</v>
       </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3684,22 +3933,1369 @@
         <v>107</v>
       </c>
       <c r="D99" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99" t="s">
+        <v>307</v>
+      </c>
+      <c r="G99">
+        <v>16.06000000000003</v>
+      </c>
+      <c r="H99">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" t="s">
+        <v>256</v>
+      </c>
+      <c r="F100" t="s">
+        <v>307</v>
+      </c>
+      <c r="G100">
+        <v>16.06000000000003</v>
+      </c>
+      <c r="H100">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
         <v>109</v>
       </c>
-      <c r="E99" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" t="s">
-        <v>210</v>
-      </c>
-      <c r="G99">
+      <c r="D101" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" t="s">
+        <v>307</v>
+      </c>
+      <c r="G101">
+        <v>16.06000000000003</v>
+      </c>
+      <c r="H101">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" t="s">
+        <v>258</v>
+      </c>
+      <c r="F102" t="s">
+        <v>307</v>
+      </c>
+      <c r="G102">
+        <v>24</v>
+      </c>
+      <c r="H102">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" t="s">
+        <v>259</v>
+      </c>
+      <c r="F103" t="s">
+        <v>307</v>
+      </c>
+      <c r="G103">
+        <v>24</v>
+      </c>
+      <c r="H103">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>259</v>
+      </c>
+      <c r="E104" t="s">
+        <v>260</v>
+      </c>
+      <c r="F104" t="s">
+        <v>307</v>
+      </c>
+      <c r="G104">
+        <v>24</v>
+      </c>
+      <c r="H104">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" t="s">
+        <v>261</v>
+      </c>
+      <c r="F105" t="s">
+        <v>307</v>
+      </c>
+      <c r="G105">
+        <v>24</v>
+      </c>
+      <c r="H105">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>261</v>
+      </c>
+      <c r="E106" t="s">
+        <v>262</v>
+      </c>
+      <c r="F106" t="s">
+        <v>307</v>
+      </c>
+      <c r="G106">
+        <v>24</v>
+      </c>
+      <c r="H106">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" t="s">
+        <v>307</v>
+      </c>
+      <c r="G107">
+        <v>24</v>
+      </c>
+      <c r="H107">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" t="s">
+        <v>264</v>
+      </c>
+      <c r="F108" t="s">
+        <v>307</v>
+      </c>
+      <c r="G108">
+        <v>24</v>
+      </c>
+      <c r="H108">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>265</v>
+      </c>
+      <c r="F109" t="s">
+        <v>307</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
+      </c>
+      <c r="H109">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" t="s">
+        <v>265</v>
+      </c>
+      <c r="E110" t="s">
+        <v>266</v>
+      </c>
+      <c r="F110" t="s">
+        <v>307</v>
+      </c>
+      <c r="G110">
+        <v>24</v>
+      </c>
+      <c r="H110">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" t="s">
+        <v>307</v>
+      </c>
+      <c r="G111">
+        <v>24</v>
+      </c>
+      <c r="H111">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" t="s">
+        <v>267</v>
+      </c>
+      <c r="E112" t="s">
+        <v>268</v>
+      </c>
+      <c r="F112" t="s">
+        <v>307</v>
+      </c>
+      <c r="G112">
+        <v>24</v>
+      </c>
+      <c r="H112">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" t="s">
+        <v>269</v>
+      </c>
+      <c r="F113" t="s">
+        <v>307</v>
+      </c>
+      <c r="G113">
+        <v>24</v>
+      </c>
+      <c r="H113">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" t="s">
+        <v>269</v>
+      </c>
+      <c r="E114" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114" t="s">
+        <v>307</v>
+      </c>
+      <c r="G114">
+        <v>24</v>
+      </c>
+      <c r="H114">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" t="s">
+        <v>271</v>
+      </c>
+      <c r="F115" t="s">
+        <v>307</v>
+      </c>
+      <c r="G115">
+        <v>24</v>
+      </c>
+      <c r="H115">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" t="s">
+        <v>271</v>
+      </c>
+      <c r="E116" t="s">
+        <v>272</v>
+      </c>
+      <c r="F116" t="s">
+        <v>307</v>
+      </c>
+      <c r="G116">
+        <v>24</v>
+      </c>
+      <c r="H116">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>272</v>
+      </c>
+      <c r="E117" t="s">
+        <v>273</v>
+      </c>
+      <c r="F117" t="s">
+        <v>307</v>
+      </c>
+      <c r="G117">
+        <v>24</v>
+      </c>
+      <c r="H117">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" t="s">
+        <v>274</v>
+      </c>
+      <c r="F118" t="s">
+        <v>307</v>
+      </c>
+      <c r="G118">
+        <v>24</v>
+      </c>
+      <c r="H118">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
+        <v>274</v>
+      </c>
+      <c r="E119" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" t="s">
+        <v>307</v>
+      </c>
+      <c r="G119">
+        <v>24</v>
+      </c>
+      <c r="H119">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" t="s">
+        <v>275</v>
+      </c>
+      <c r="E120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F120" t="s">
+        <v>307</v>
+      </c>
+      <c r="G120">
+        <v>24</v>
+      </c>
+      <c r="H120">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" t="s">
+        <v>276</v>
+      </c>
+      <c r="E121" t="s">
+        <v>277</v>
+      </c>
+      <c r="F121" t="s">
+        <v>307</v>
+      </c>
+      <c r="G121">
+        <v>24</v>
+      </c>
+      <c r="H121">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="s">
+        <v>277</v>
+      </c>
+      <c r="E122" t="s">
+        <v>278</v>
+      </c>
+      <c r="F122" t="s">
+        <v>307</v>
+      </c>
+      <c r="G122">
+        <v>24</v>
+      </c>
+      <c r="H122">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" t="s">
+        <v>307</v>
+      </c>
+      <c r="G123">
+        <v>24</v>
+      </c>
+      <c r="H123">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" t="s">
+        <v>280</v>
+      </c>
+      <c r="F124" t="s">
+        <v>307</v>
+      </c>
+      <c r="G124">
+        <v>24</v>
+      </c>
+      <c r="H124">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" t="s">
+        <v>281</v>
+      </c>
+      <c r="F125" t="s">
+        <v>307</v>
+      </c>
+      <c r="G125">
+        <v>24</v>
+      </c>
+      <c r="H125">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>134</v>
+      </c>
+      <c r="D126" t="s">
+        <v>281</v>
+      </c>
+      <c r="E126" t="s">
+        <v>282</v>
+      </c>
+      <c r="F126" t="s">
+        <v>307</v>
+      </c>
+      <c r="G126">
+        <v>24</v>
+      </c>
+      <c r="H126">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" t="s">
+        <v>283</v>
+      </c>
+      <c r="F127" t="s">
+        <v>307</v>
+      </c>
+      <c r="G127">
+        <v>24</v>
+      </c>
+      <c r="H127">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" t="s">
+        <v>283</v>
+      </c>
+      <c r="E128" t="s">
+        <v>284</v>
+      </c>
+      <c r="F128" t="s">
+        <v>307</v>
+      </c>
+      <c r="G128">
+        <v>24</v>
+      </c>
+      <c r="H128">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" t="s">
+        <v>285</v>
+      </c>
+      <c r="F129" t="s">
+        <v>307</v>
+      </c>
+      <c r="G129">
+        <v>24</v>
+      </c>
+      <c r="H129">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" t="s">
+        <v>285</v>
+      </c>
+      <c r="E130" t="s">
+        <v>286</v>
+      </c>
+      <c r="F130" t="s">
+        <v>307</v>
+      </c>
+      <c r="G130">
+        <v>24</v>
+      </c>
+      <c r="H130">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131" t="s">
+        <v>286</v>
+      </c>
+      <c r="E131" t="s">
+        <v>287</v>
+      </c>
+      <c r="F131" t="s">
+        <v>307</v>
+      </c>
+      <c r="G131">
+        <v>24</v>
+      </c>
+      <c r="H131">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>287</v>
+      </c>
+      <c r="E132" t="s">
+        <v>288</v>
+      </c>
+      <c r="F132" t="s">
+        <v>307</v>
+      </c>
+      <c r="G132">
+        <v>24</v>
+      </c>
+      <c r="H132">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" t="s">
+        <v>289</v>
+      </c>
+      <c r="F133" t="s">
+        <v>307</v>
+      </c>
+      <c r="G133">
+        <v>24</v>
+      </c>
+      <c r="H133">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" t="s">
+        <v>289</v>
+      </c>
+      <c r="E134" t="s">
+        <v>290</v>
+      </c>
+      <c r="F134" t="s">
+        <v>307</v>
+      </c>
+      <c r="G134">
+        <v>24</v>
+      </c>
+      <c r="H134">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" t="s">
+        <v>290</v>
+      </c>
+      <c r="E135" t="s">
+        <v>291</v>
+      </c>
+      <c r="F135" t="s">
+        <v>307</v>
+      </c>
+      <c r="G135">
+        <v>24</v>
+      </c>
+      <c r="H135">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" t="s">
+        <v>292</v>
+      </c>
+      <c r="F136" t="s">
+        <v>307</v>
+      </c>
+      <c r="G136">
+        <v>24</v>
+      </c>
+      <c r="H136">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" t="s">
+        <v>307</v>
+      </c>
+      <c r="G137">
+        <v>24</v>
+      </c>
+      <c r="H137">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" t="s">
+        <v>294</v>
+      </c>
+      <c r="F138" t="s">
+        <v>307</v>
+      </c>
+      <c r="G138">
+        <v>24</v>
+      </c>
+      <c r="H138">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" t="s">
+        <v>295</v>
+      </c>
+      <c r="F139" t="s">
+        <v>307</v>
+      </c>
+      <c r="G139">
+        <v>24</v>
+      </c>
+      <c r="H139">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" t="s">
+        <v>295</v>
+      </c>
+      <c r="E140" t="s">
+        <v>296</v>
+      </c>
+      <c r="F140" t="s">
+        <v>307</v>
+      </c>
+      <c r="G140">
+        <v>24</v>
+      </c>
+      <c r="H140">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" t="s">
+        <v>296</v>
+      </c>
+      <c r="E141" t="s">
+        <v>297</v>
+      </c>
+      <c r="F141" t="s">
+        <v>307</v>
+      </c>
+      <c r="G141">
+        <v>24</v>
+      </c>
+      <c r="H141">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" t="s">
+        <v>297</v>
+      </c>
+      <c r="E142" t="s">
+        <v>166</v>
+      </c>
+      <c r="F142" t="s">
+        <v>307</v>
+      </c>
+      <c r="G142">
+        <v>24</v>
+      </c>
+      <c r="H142">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" t="s">
+        <v>298</v>
+      </c>
+      <c r="E143" t="s">
+        <v>163</v>
+      </c>
+      <c r="F143" t="s">
+        <v>308</v>
+      </c>
+      <c r="G143">
+        <v>24</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" t="s">
+        <v>298</v>
+      </c>
+      <c r="E144" t="s">
+        <v>159</v>
+      </c>
+      <c r="F144" t="s">
+        <v>308</v>
+      </c>
+      <c r="G144">
+        <v>120.06</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" t="s">
+        <v>299</v>
+      </c>
+      <c r="E145" t="s">
+        <v>304</v>
+      </c>
+      <c r="F145" t="s">
+        <v>309</v>
+      </c>
+      <c r="G145">
+        <v>80</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" t="s">
+        <v>300</v>
+      </c>
+      <c r="E146" t="s">
+        <v>304</v>
+      </c>
+      <c r="F146" t="s">
+        <v>309</v>
+      </c>
+      <c r="G146">
+        <v>24</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" t="s">
+        <v>301</v>
+      </c>
+      <c r="E147" t="s">
+        <v>304</v>
+      </c>
+      <c r="F147" t="s">
+        <v>309</v>
+      </c>
+      <c r="G147">
+        <v>24</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>156</v>
+      </c>
+      <c r="D148" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" t="s">
+        <v>304</v>
+      </c>
+      <c r="F148" t="s">
+        <v>309</v>
+      </c>
+      <c r="G148">
+        <v>16.06000000000003</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149" t="s">
+        <v>303</v>
+      </c>
+      <c r="E149" t="s">
+        <v>165</v>
+      </c>
+      <c r="F149" t="s">
+        <v>308</v>
+      </c>
+      <c r="G149">
         <v>49</v>
       </c>
-      <c r="H99">
+      <c r="H149">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>216</v>
+      <c r="I149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" t="s">
+        <v>305</v>
+      </c>
+      <c r="F150" t="s">
+        <v>309</v>
+      </c>
+      <c r="G150">
+        <v>49</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +5305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3723,16 +5319,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -3740,140 +5336,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="C2">
-        <v>29.4</v>
+        <v>144.06</v>
       </c>
       <c r="D2">
-        <v>29.4</v>
+        <v>144.06</v>
       </c>
       <c r="E2">
         <v>154.35</v>
       </c>
       <c r="F2">
-        <v>19.04761904761905</v>
+        <v>93.33333333333336</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>61.25000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-      <c r="D4">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>78.75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>80</v>
-      </c>
-      <c r="F5">
-        <v>61.25000000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6">
-        <v>52.9200000000003</v>
-      </c>
-      <c r="D6">
-        <v>52.9200000000003</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>66.15000000000038</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7">
-        <v>43.26000000000022</v>
-      </c>
-      <c r="D7">
-        <v>43.26000000000022</v>
-      </c>
-      <c r="E7">
-        <v>121.1280000000007</v>
-      </c>
-      <c r="F7">
-        <v>35.71428571428569</v>
-      </c>
-      <c r="G7" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
